--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE301A24-86C7-4035-8FDF-1908A4F67F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010049D-C9C5-4740-BC1A-6E4780A299C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
@@ -37,10 +37,45 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}</author>
+    <author>tc={A3EA049A-9DC0-427A-A6B9-5CFC8B634B45}</author>
+    <author>tc={2440FEDA-AE8F-4413-B6E2-E45C3B457A52}</author>
     <author>tc={C0EC2496-BC2E-4763-8FEA-9482C956FD1F}</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C0EC2496-BC2E-4763-8FEA-9482C956FD1F}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    새로운 로직으로 코드를 짰는가?</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{A3EA049A-9DC0-427A-A6B9-5CFC8B634B45}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    추후 다른 문제에 활용 가능성이 많은 아이디어가 사용되었는가?
+매우 : 해당 로직으로 접근하는 문제가 많을 것으로 예측되며, 지금까지 푼 문제 중에서 동일한 접근 방식을 갖는 문제가 많았음.
+보통 : 해당 유형의 알고리즘을 풀기 위해 자주 사용되는 로직은 아니나, 전통적인 접근법과 매우 긴밀하게 맞닿아 있는 문제임.
+약간 : 전통적인 접근법으로도 해결이 되나, 이 문제만의 독특한 풀이를 사용하면 더 쉽게 풀리는 문제임. 
+불필요 :  전통적인 접근법과는 많이 벗어나 있음. 전통적인 접근법으로는 해결되지 않는 문제이며, 독특한 발상이 요구됨.</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{2440FEDA-AE8F-4413-B6E2-E45C3B457A52}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    다음 코드 리뷰에서 또 봐야 할 필요가 있는지
+매우 : 이전 코드 리뷰 과정에서도 로직이 한 번에 이해되지 않았으며, 로직을 파악하기 위해 블로그 등을 참고해야 했음.
+보통 : 약간의 고민을 거쳐 로직을 이해했으며, 로직 발상 감각을 유지하기 위해 추후 다시 풀어 볼 필요가 있음.
+약간 : 이 문제만의 독특한 발상으로 인해 추후 동일한 로직을 갖는 문제가 나올 가능성이 적다고 판단됨. 시간이 되면 다시 볼 필요가 있음.
+불필요 : 쉽게 풀림. 그 어느 애매한 점 없이 한번에 로직 설명과 로직 재생산이 가능함.</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="3" shapeId="0" xr:uid="{C0EC2496-BC2E-4763-8FEA-9482C956FD1F}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -53,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +151,14 @@
   </si>
   <si>
     <t>불필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -201,6 +244,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -210,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,19 +272,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -240,7 +295,18 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -556,6 +622,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2022-04-25T07:43:38.86" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
+    <text>새로운 로직으로 코드를 짰는가?</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2022-04-25T07:44:55.72" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{A3EA049A-9DC0-427A-A6B9-5CFC8B634B45}">
+    <text>추후 다른 문제에 활용 가능성이 많은 아이디어가 사용되었는가?
+매우 : 해당 로직으로 접근하는 문제가 많을 것으로 예측되며, 지금까지 푼 문제 중에서 동일한 접근 방식을 갖는 문제가 많았음.
+보통 : 해당 유형의 알고리즘을 풀기 위해 자주 사용되는 로직은 아니나, 전통적인 접근법과 매우 긴밀하게 맞닿아 있는 문제임.
+약간 : 전통적인 접근법으로도 해결이 되나, 이 문제만의 독특한 풀이를 사용하면 더 쉽게 풀리는 문제임. 
+불필요 :  전통적인 접근법과는 많이 벗어나 있음. 전통적인 접근법으로는 해결되지 않는 문제이며, 독특한 발상이 요구됨.</text>
+  </threadedComment>
+  <threadedComment ref="F2" dT="2022-04-25T07:57:09.33" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{2440FEDA-AE8F-4413-B6E2-E45C3B457A52}">
+    <text>다음 코드 리뷰에서 또 봐야 할 필요가 있는지
+매우 : 이전 코드 리뷰 과정에서도 로직이 한 번에 이해되지 않았으며, 로직을 파악하기 위해 블로그 등을 참고해야 했음.
+보통 : 약간의 고민을 거쳐 로직을 이해했으며, 로직 발상 감각을 유지하기 위해 추후 다시 풀어 볼 필요가 있음.
+약간 : 이 문제만의 독특한 발상으로 인해 추후 동일한 로직을 갖는 문제가 나올 가능성이 적다고 판단됨. 시간이 되면 다시 볼 필요가 있음.
+불필요 : 쉽게 풀림. 그 어느 애매한 점 없이 한번에 로직 설명과 로직 재생산이 가능함.</text>
+  </threadedComment>
   <threadedComment ref="B3" dT="2022-04-25T05:23:16.66" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{C0EC2496-BC2E-4763-8FEA-9482C956FD1F}">
     <text>설탕 배달</text>
   </threadedComment>
@@ -564,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -578,32 +661,38 @@
     <col min="1" max="1" width="21.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
     <col min="3" max="3" width="54.796875" customWidth="1"/>
-    <col min="4" max="5" width="8.796875" style="1"/>
+    <col min="4" max="4" width="5.09765625" customWidth="1"/>
+    <col min="5" max="5" width="5.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,29 +703,36 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -645,10 +741,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{6A70C3A3-3BDE-4FA2-96F4-D23B0CCF6FD4}"/>
   </hyperlinks>

--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010049D-C9C5-4740-BC1A-6E4780A299C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF011A82-5775-430F-B2C0-CD323EDA1DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
@@ -41,6 +41,14 @@
     <author>tc={A3EA049A-9DC0-427A-A6B9-5CFC8B634B45}</author>
     <author>tc={2440FEDA-AE8F-4413-B6E2-E45C3B457A52}</author>
     <author>tc={C0EC2496-BC2E-4763-8FEA-9482C956FD1F}</author>
+    <author>tc={6ADDA8D3-EAF1-4AB9-907F-821EE01D4EAC}</author>
+    <author>tc={7F48C99C-3A5F-465B-85C8-E2E2C3A3B443}</author>
+    <author>tc={5DEC31BA-2335-4140-B30B-941947117D2E}</author>
+    <author>tc={2C51D675-FA97-4C36-BB91-71E44EC8F4DE}</author>
+    <author>tc={FFC56A9B-ECB4-4A5F-9743-F8A76E343D71}</author>
+    <author>tc={3A801A99-11B4-403D-BD5D-8E26D488A454}</author>
+    <author>tc={34832AE1-2992-4FF0-A81E-0C17AE8E0B68}</author>
+    <author>tc={79E3788C-E851-4D69-8A82-F8A31D32E5FE}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -56,11 +64,11 @@
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
-    추후 다른 문제에 활용 가능성이 많은 아이디어가 사용되었는가?
-매우 : 해당 로직으로 접근하는 문제가 많을 것으로 예측되며, 지금까지 푼 문제 중에서 동일한 접근 방식을 갖는 문제가 많았음.
-보통 : 해당 유형의 알고리즘을 풀기 위해 자주 사용되는 로직은 아니나, 전통적인 접근법과 매우 긴밀하게 맞닿아 있는 문제임.
-약간 : 전통적인 접근법으로도 해결이 되나, 이 문제만의 독특한 풀이를 사용하면 더 쉽게 풀리는 문제임. 
-불필요 :  전통적인 접근법과는 많이 벗어나 있음. 전통적인 접근법으로는 해결되지 않는 문제이며, 독특한 발상이 요구됨.</t>
+    문제를 풀기 위해 독특한 접근법이 사용되었는가?
+매우 :  전통적인 접근법과는 많이 벗어나 있음. 전통적인 접근법으로는 해결되지 않는 문제이며, 독특한 발상이 요구됨.
+보통 : 전통적인 접근법으로도 해결이 되나, 시간 초과 혹은 코드의 양이 방대해짐. 이 문제만의 독특한 풀이를 사용하면 더 쉽게 풀리는 문제임. 
+약간 : 해당 유형의 알고리즘을 풀기 위해 자주 사용되는 로직은 아니나, 전통적인 접근법과 매우 긴밀하게 맞닿아 있는 문제임.
+불필요 : 해당 로직으로 접근하는 문제가 많을 것으로 예측되며, 지금까지 푼 문제 중에서 동일한 접근 방식을 갖는 문제가 많았음.</t>
       </text>
     </comment>
     <comment ref="F2" authorId="2" shapeId="0" xr:uid="{2440FEDA-AE8F-4413-B6E2-E45C3B457A52}">
@@ -69,7 +77,7 @@
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     다음 코드 리뷰에서 또 봐야 할 필요가 있는지
-매우 : 이전 코드 리뷰 과정에서도 로직이 한 번에 이해되지 않았으며, 로직을 파악하기 위해 블로그 등을 참고해야 했음.
+매우 : 이전 코드 리뷰 과정에서도 로직이 한 번에 이해되지 않았으며, 로직을 파악하기 위해 블로그 등을 참고해야 했음. 어느 정도 중요도를 갖는 문제임.
 보통 : 약간의 고민을 거쳐 로직을 이해했으며, 로직 발상 감각을 유지하기 위해 추후 다시 풀어 볼 필요가 있음.
 약간 : 이 문제만의 독특한 발상으로 인해 추후 동일한 로직을 갖는 문제가 나올 가능성이 적다고 판단됨. 시간이 되면 다시 볼 필요가 있음.
 불필요 : 쉽게 풀림. 그 어느 애매한 점 없이 한번에 로직 설명과 로직 재생산이 가능함.</t>
@@ -83,12 +91,76 @@
     설탕 배달</t>
       </text>
     </comment>
+    <comment ref="B4" authorId="4" shapeId="0" xr:uid="{6ADDA8D3-EAF1-4AB9-907F-821EE01D4EAC}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    피보나치 함수</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="5" shapeId="0" xr:uid="{7F48C99C-3A5F-465B-85C8-E2E2C3A3B443}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    ACM Craft</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="6" shapeId="0" xr:uid="{5DEC31BA-2335-4140-B30B-941947117D2E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    다리 놓기</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="7" shapeId="0" xr:uid="{2C51D675-FA97-4C36-BB91-71E44EC8F4DE}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    RGB 거리</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="8" shapeId="0" xr:uid="{FFC56A9B-ECB4-4A5F-9743-F8A76E343D71}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    동물원</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="9" shapeId="0" xr:uid="{3A801A99-11B4-403D-BD5D-8E26D488A454}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    지름길</t>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="10" shapeId="0" xr:uid="{34832AE1-2992-4FF0-A81E-0C17AE8E0B68}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    1로 만들기</t>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="11" shapeId="0" xr:uid="{79E3788C-E851-4D69-8A82-F8A31D32E5FE}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    팰린드롬 분할</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +231,130 @@
   </si>
   <si>
     <t>Re</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1부터 끝까지 차례대로 이전 단계의 DP 배열을 참고해서 현재 DP 값을 구하는 문제.
+점화식 : DP[ I ] = MAX(DP[ I - 3 ], DP[ I - 5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1부터 끝까지 차례대로 이전 단계의 DP 배열을 참고해서 현재 DP 값을 구하는 문제.
+점화식 : DP[ I ] = DP[ I - 1 ] + DP[ I - 2 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 발생 시 위상으로 rr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">위상 정렬을 할 때 반드시 필요한 데이터 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자신의 선행 조건의 개수를 저장하는 배열, 자신을 선행 조건으로 갖는 대상의 INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+선행 조건이 없는 대상부터 진행하면서, 선행 조건이 0이 되는 대상은 그 다음 TARGET이 된다.
+위상 정렬의 KEY POINT : 자기 자신을 진행하기 위해서는 자신 이전에 진행되어야 할 대상들 중 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가장 늦게 끝나는 대상이 완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>되어야 시작할 수 있다.
+점화식 : DP[ I ] = MAX(DP[ I의 선행조건들 ])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행과 열의 index가 조합되어 만들어지는 경우의 수를 저장하는 배열을 통해 dp를 구현한다.
+점화식 : DP[ I ][ J ] = DP[ I-1 ][ J-1 ] + DP[ I ][ J-1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 단계의 경우의 수 중 현재 단계로 올 수 있는 대상의 최솟값에 현재 단계의 값을 더한다.
+점화식 : DP[ I ][ J ] = MIN(DP[ I - 1][가능한 대상들])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 단계의 경우의 수 중 현재 단계로 올 수 있는 대상들의 합을 구한다.
+점화식 : DP[ I ][ J ] = SUM(DP[ I - 1][가능한 대상들])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 DP 값을 기준으로 다음 값을 구하다가 특정 기점부터는 새로운 값(C)을 기준으로 DP 값을 구해나간다.
+점화식 : DP[ I ] = DP[ I - 1 ] + 1 || DP[ I - K ] + C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 단계의 경우의 수 중 현재 단계로 올 수 있는 대상의 최솟값에 현재 단계의 값을 더한다.
+점화식 : DP[ I ] = MIN(DP[가능한 대상들]) + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팰린드롬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 문자열이 주어졌을 때, 일부가 팰린드롬인지를 모든 경우의 수에 대해 판별하는 것은 일도 아니다. 이 과정은 명확한 DP 알고리즘으로 해결 가능하다.
+팰린드롬의 최소 개수를 구하는 과정은, 기존의 점화식을 우선 세우고 이를 평가하는 DP의 전형과 더불어, 큰 관점에서 우선 데이터를 바라보고 이를 작은 단위에 적용할 수 있는지를 평가할 수 있는 좋은 문제다.
+점화식 : DP[ I ] = DP[ X ] + 1 ( X &lt;= I )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +397,33 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -249,8 +472,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -262,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,19 +502,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -295,7 +543,25 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -328,7 +594,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="사용자 지정 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +629,7 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -626,15 +892,15 @@
     <text>새로운 로직으로 코드를 짰는가?</text>
   </threadedComment>
   <threadedComment ref="E2" dT="2022-04-25T07:44:55.72" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{A3EA049A-9DC0-427A-A6B9-5CFC8B634B45}">
-    <text>추후 다른 문제에 활용 가능성이 많은 아이디어가 사용되었는가?
-매우 : 해당 로직으로 접근하는 문제가 많을 것으로 예측되며, 지금까지 푼 문제 중에서 동일한 접근 방식을 갖는 문제가 많았음.
-보통 : 해당 유형의 알고리즘을 풀기 위해 자주 사용되는 로직은 아니나, 전통적인 접근법과 매우 긴밀하게 맞닿아 있는 문제임.
-약간 : 전통적인 접근법으로도 해결이 되나, 이 문제만의 독특한 풀이를 사용하면 더 쉽게 풀리는 문제임. 
-불필요 :  전통적인 접근법과는 많이 벗어나 있음. 전통적인 접근법으로는 해결되지 않는 문제이며, 독특한 발상이 요구됨.</text>
+    <text>문제를 풀기 위해 독특한 접근법이 사용되었는가?
+매우 :  전통적인 접근법과는 많이 벗어나 있음. 전통적인 접근법으로는 해결되지 않는 문제이며, 독특한 발상이 요구됨.
+보통 : 전통적인 접근법으로도 해결이 되나, 시간 초과 혹은 코드의 양이 방대해짐. 이 문제만의 독특한 풀이를 사용하면 더 쉽게 풀리는 문제임. 
+약간 : 해당 유형의 알고리즘을 풀기 위해 자주 사용되는 로직은 아니나, 전통적인 접근법과 매우 긴밀하게 맞닿아 있는 문제임.
+불필요 : 해당 로직으로 접근하는 문제가 많을 것으로 예측되며, 지금까지 푼 문제 중에서 동일한 접근 방식을 갖는 문제가 많았음.</text>
   </threadedComment>
   <threadedComment ref="F2" dT="2022-04-25T07:57:09.33" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{2440FEDA-AE8F-4413-B6E2-E45C3B457A52}">
     <text>다음 코드 리뷰에서 또 봐야 할 필요가 있는지
-매우 : 이전 코드 리뷰 과정에서도 로직이 한 번에 이해되지 않았으며, 로직을 파악하기 위해 블로그 등을 참고해야 했음.
+매우 : 이전 코드 리뷰 과정에서도 로직이 한 번에 이해되지 않았으며, 로직을 파악하기 위해 블로그 등을 참고해야 했음. 어느 정도 중요도를 갖는 문제임.
 보통 : 약간의 고민을 거쳐 로직을 이해했으며, 로직 발상 감각을 유지하기 위해 추후 다시 풀어 볼 필요가 있음.
 약간 : 이 문제만의 독특한 발상으로 인해 추후 동일한 로직을 갖는 문제가 나올 가능성이 적다고 판단됨. 시간이 되면 다시 볼 필요가 있음.
 불필요 : 쉽게 풀림. 그 어느 애매한 점 없이 한번에 로직 설명과 로직 재생산이 가능함.</text>
@@ -642,43 +908,66 @@
   <threadedComment ref="B3" dT="2022-04-25T05:23:16.66" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{C0EC2496-BC2E-4763-8FEA-9482C956FD1F}">
     <text>설탕 배달</text>
   </threadedComment>
+  <threadedComment ref="B4" dT="2022-04-26T03:40:39.30" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{6ADDA8D3-EAF1-4AB9-907F-821EE01D4EAC}">
+    <text>피보나치 함수</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2022-04-26T03:41:05.84" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{7F48C99C-3A5F-465B-85C8-E2E2C3A3B443}">
+    <text>ACM Craft</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2022-04-26T04:04:00.41" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{5DEC31BA-2335-4140-B30B-941947117D2E}">
+    <text>다리 놓기</text>
+  </threadedComment>
+  <threadedComment ref="B7" dT="2022-04-26T04:24:44.69" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{2C51D675-FA97-4C36-BB91-71E44EC8F4DE}">
+    <text>RGB 거리</text>
+  </threadedComment>
+  <threadedComment ref="B8" dT="2022-04-26T04:55:13.58" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{FFC56A9B-ECB4-4A5F-9743-F8A76E343D71}">
+    <text>동물원</text>
+  </threadedComment>
+  <threadedComment ref="B9" dT="2022-04-26T05:19:04.04" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{3A801A99-11B4-403D-BD5D-8E26D488A454}">
+    <text>지름길</text>
+  </threadedComment>
+  <threadedComment ref="B10" dT="2022-04-26T06:12:53.10" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{34832AE1-2992-4FF0-A81E-0C17AE8E0B68}">
+    <text>1로 만들기</text>
+  </threadedComment>
+  <threadedComment ref="B11" dT="2022-04-26T06:15:56.53" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{79E3788C-E851-4D69-8A82-F8A31D32E5FE}">
+    <text>팰린드롬 분할</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="54.796875" customWidth="1"/>
-    <col min="4" max="4" width="5.09765625" customWidth="1"/>
-    <col min="5" max="5" width="5.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.796875" style="6" customWidth="1"/>
+    <col min="4" max="6" width="7.19921875" style="5" customWidth="1"/>
+    <col min="7" max="9" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
@@ -693,51 +982,240 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="15">
         <v>2839</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1764</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1010</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1149</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1309</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="59.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1446</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1463</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="158.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1509</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +1225,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:I3 A12:I421 A4:D11 G4:I11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B2&lt;&gt;""</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{6A70C3A3-3BDE-4FA2-96F4-D23B0CCF6FD4}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{F0352995-78B9-4F0D-8922-68E94E3B2B3D}"/>
+    <hyperlink ref="A5:A9" r:id="rId3" display="다이나믹 프로그래밍" xr:uid="{F63165DC-4C4C-4FB2-AA51-86A40683A6DD}"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://www.acmicpc.net/problem/2839" xr:uid="{8633029C-7106-404B-945B-BC944867C52F}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://www.acmicpc.net/problem/1003" xr:uid="{F39D8A3C-5F29-4B7C-8046-A784963709EF}"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://www.acmicpc.net/problem/1764" xr:uid="{6F2AFA22-F33C-41C4-BAE5-F2A4A1C62C57}"/>
+    <hyperlink ref="B6" r:id="rId7" display="https://www.acmicpc.net/problem/1010" xr:uid="{697CDE3C-1E9A-4F33-9610-34CC32635310}"/>
+    <hyperlink ref="B7" r:id="rId8" display="https://www.acmicpc.net/problem/1149" xr:uid="{1DFAC2D4-404D-48BE-9F76-0EF788E8DD10}"/>
+    <hyperlink ref="B8" r:id="rId9" display="https://www.acmicpc.net/problem/1309" xr:uid="{958032A8-A7EA-4E30-85A4-F8B524D211F0}"/>
+    <hyperlink ref="B9" r:id="rId10" display="https://www.acmicpc.net/problem/1446" xr:uid="{7CBA8BC6-30D0-40E1-A037-518BAFAFCFE4}"/>
+    <hyperlink ref="A10" r:id="rId11" xr:uid="{78A11D47-340F-41B5-9C03-62EB45D6D6A1}"/>
+    <hyperlink ref="B10" r:id="rId12" display="https://www.acmicpc.net/problem/1463" xr:uid="{8ADD9A7B-4375-4B7B-B679-A06A570D8EE0}"/>
+    <hyperlink ref="B11" r:id="rId13" display="https://www.acmicpc.net/problem/1509" xr:uid="{AED4A2BE-513C-4802-8F49-EA5015704F50}"/>
+    <hyperlink ref="A11" r:id="rId14" xr:uid="{180FA08F-6171-4FE5-94F0-9EA2EA772F33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF011A82-5775-430F-B2C0-CD323EDA1DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15876DC3-54A4-49B7-B69B-44F11D3BF115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,6 +52,16 @@
     <author>tc={3A801A99-11B4-403D-BD5D-8E26D488A454}</author>
     <author>tc={34832AE1-2992-4FF0-A81E-0C17AE8E0B68}</author>
     <author>tc={79E3788C-E851-4D69-8A82-F8A31D32E5FE}</author>
+    <author>tc={77FB13C7-44A0-46D3-AC3D-43424ED2FDB0}</author>
+    <author>tc={81C98B49-3D9C-464D-94D1-1718AB4B4A46}</author>
+    <author>tc={FE8E76F4-F8C0-4A03-B5F5-6ACFD3E8CA16}</author>
+    <author>tc={806B2155-336C-49AF-BA88-63CD4B15828D}</author>
+    <author>tc={42D4EF14-D9E5-4DDD-970E-16335F103B8F}</author>
+    <author>tc={33A95052-FB78-480E-BDF6-6D35E7336382}</author>
+    <author>tc={E5BCA481-88C7-4DB9-84A2-E50F42D0EAFD}</author>
+    <author>tc={6A91F6E7-E758-4CF6-8746-AE961867CDD4}</author>
+    <author>tc={E3BAE512-3040-4222-A580-FEF67DC5642B}</author>
+    <author>tc={BBB18CAF-791F-4B3A-AF7C-220A9F7F1D30}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -155,12 +168,92 @@
     팰린드롬 분할</t>
       </text>
     </comment>
+    <comment ref="B12" authorId="12" shapeId="0" xr:uid="{77FB13C7-44A0-46D3-AC3D-43424ED2FDB0}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    게임 개발</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="13" shapeId="0" xr:uid="{81C98B49-3D9C-464D-94D1-1718AB4B4A46}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    내리막 길</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="14" shapeId="0" xr:uid="{FE8E76F4-F8C0-4A03-B5F5-6ACFD3E8CA16}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    계단 수</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="15" shapeId="0" xr:uid="{806B2155-336C-49AF-BA88-63CD4B15828D}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    제곱수의 합</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="16" shapeId="0" xr:uid="{42D4EF14-D9E5-4DDD-970E-16335F103B8F}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    01타일</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="17" shapeId="0" xr:uid="{33A95052-FB78-480E-BDF6-6D35E7336382}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    연속 합</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="18" shapeId="0" xr:uid="{E5BCA481-88C7-4DB9-84A2-E50F42D0EAFD}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    정수 삼각형</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="19" shapeId="0" xr:uid="{6A91F6E7-E758-4CF6-8746-AE961867CDD4}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    욕심쟁이 판다</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="20" shapeId="0" xr:uid="{E3BAE512-3040-4222-A580-FEF67DC5642B}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    내려가기</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="21" shapeId="0" xr:uid="{BBB18CAF-791F-4B3A-AF7C-220A9F7F1D30}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    포도주 시식</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,7 +447,128 @@
   <si>
     <t>전체 문자열이 주어졌을 때, 일부가 팰린드롬인지를 모든 경우의 수에 대해 판별하는 것은 일도 아니다. 이 과정은 명확한 DP 알고리즘으로 해결 가능하다.
 팰린드롬의 최소 개수를 구하는 과정은, 기존의 점화식을 우선 세우고 이를 평가하는 DP의 전형과 더불어, 큰 관점에서 우선 데이터를 바라보고 이를 작은 단위에 적용할 수 있는지를 평가할 수 있는 좋은 문제다.
-점화식 : DP[ I ] = DP[ X ] + 1 ( X &lt;= I )</t>
+점화식 : DP[ I ] = MAX(DP[ X ]) + 1 ( X &lt;= I )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1764 참조
+추가적으로 자신의 선행 조건의 INDEX, 선행조건을 고려했을 때 건물이 완공되는 시각을 저장하는 자료구조가 필요하다.
+점화식 : DP[ I ] = MAX(DP[ I의 선행조건들 ])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP와 그래프 탐색의 조합 중 중상 난이도의 문제.
+그래프 탐색에서 단방향 이동만 가능한 경우, 방문 여부를 체크하지 않아도 될 수 있다.
+이미 탐색했던 곳을 또 탐색하면서 결과를 얻어야 하는 경우, 그래프 탐색에 DP를 함께 구현하는 것이 유리하다.
+점화식 : DP[ I ] = SUM(DP[가능한 대상들])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">비트마스킹에서 0에서 X-1까지 X개의 비트필드가 필요하면 1&lt;&lt;X로 하면 된다. 배열과 완전 똑같다.
+EX) 10개의 비트필드가 필요하면 1&lt;&lt;10이고, 1&lt;&lt;10 - 1은
+1&lt;&lt;0 부터 1&lt;&lt;9까지 모든 비트필드가 1로 채워짐을 의미한다.
+배열을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,023,000칸 탐색하면서 간단한 연산을 하는 시간은 4ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>밖에 안 걸린다.
+점화식 : DP[ I ] = DP[ I -1 ] + DP[ I + 1 ]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1509와 같이 평가 대상에서 조건이 충족하는 부분은 빼고 나머지 부분은 이미 구한 DP에서 참조해서 결과를 얻는 문제임.
+팰린드롬 및 제곱수와 같이, 조건이 충족하는 뺄 수 있는 부분인지를 O(1)에 확인이 가능하면 그 부분을 제외한 나머지 부분에 대한 최대/최소를 판별해서 DP를 구하면 된다.
+점화식 : DP[ I ] = MIN(DP[ X ]) + 1 ( X &lt;= I )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일의 신장 문제. 앞에서 뭔 일이 일어나건간에, 나한테로 올 수 있는 경우의 수는 딱 두 가지밖에 없기에, 이에 대해서만 생각하면 된다.
+점화식 : DP[ I ] = DP[ I - 1 ] + DP[ I - 2 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분 합을 구하는 대표적인 DP 문제.
+이전 구간 합이랑 현재 번호를 비교했을 때, 현재 번호가 구간 합을 연장시키는 것보다 더 유리하면, 구간 합을 가차없이 버린다.
+점화식 : DP[ I ] = MAX( C, DP[ I -1 ] + C )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 탐색 과정의 누적 합을 구하는 대표적인 문제.
+나한테로 올 수 있는 곳 중 최댓값을 구하면 된다.
+점화식 : DP[ I ] = MAX(DP[가능한 대상들])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1520과 유사한 DP+그래프 문제.
+단, 시작점이 고정되어 있지 않기에, O(N)으로 선형탐색을 하면서 진행한다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작점이 고정되어 있지 않으면 무조건 선형탐색일까?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+점화식 : DP[ I ] = MAX(DP[가능한 대상들])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 탐색 과정의 누적 합을 구하는 대표적인 문제.
+나한테로 올 수 있는 곳 중 최솟값을 구하면 된다.
+점화식 : DP[ I ] = MIN(DP[가능한 대상들])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한 조건이 있는 누적 합.
+제한 조건을 거치는 경우의 수를 파악해서, 각 경우의 수별로 DP를 따로 관리해야 한다.
+점화식 : DP[ I ] = MAX(DP[가능한 대상들]) || DP[ I - 1 ] + C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +576,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +643,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -489,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,17 +740,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,12 +755,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -932,18 +1212,48 @@
   <threadedComment ref="B11" dT="2022-04-26T06:15:56.53" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{79E3788C-E851-4D69-8A82-F8A31D32E5FE}">
     <text>팰린드롬 분할</text>
   </threadedComment>
+  <threadedComment ref="B12" dT="2022-04-27T03:24:33.08" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{77FB13C7-44A0-46D3-AC3D-43424ED2FDB0}">
+    <text>게임 개발</text>
+  </threadedComment>
+  <threadedComment ref="B13" dT="2022-04-27T04:15:18.29" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{81C98B49-3D9C-464D-94D1-1718AB4B4A46}">
+    <text>내리막 길</text>
+  </threadedComment>
+  <threadedComment ref="B14" dT="2022-04-27T04:32:48.61" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{FE8E76F4-F8C0-4A03-B5F5-6ACFD3E8CA16}">
+    <text>계단 수</text>
+  </threadedComment>
+  <threadedComment ref="B15" dT="2022-04-27T04:54:17.30" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{806B2155-336C-49AF-BA88-63CD4B15828D}">
+    <text>제곱수의 합</text>
+  </threadedComment>
+  <threadedComment ref="B16" dT="2022-04-27T05:18:22.49" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{42D4EF14-D9E5-4DDD-970E-16335F103B8F}">
+    <text>01타일</text>
+  </threadedComment>
+  <threadedComment ref="B17" dT="2022-04-27T05:39:59.54" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{33A95052-FB78-480E-BDF6-6D35E7336382}">
+    <text>연속 합</text>
+  </threadedComment>
+  <threadedComment ref="B18" dT="2022-04-27T06:04:37.31" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{E5BCA481-88C7-4DB9-84A2-E50F42D0EAFD}">
+    <text>정수 삼각형</text>
+  </threadedComment>
+  <threadedComment ref="B19" dT="2022-04-27T06:12:27.69" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{6A91F6E7-E758-4CF6-8746-AE961867CDD4}">
+    <text>욕심쟁이 판다</text>
+  </threadedComment>
+  <threadedComment ref="B20" dT="2022-04-27T06:20:44.47" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{E3BAE512-3040-4222-A580-FEF67DC5642B}">
+    <text>내려가기</text>
+  </threadedComment>
+  <threadedComment ref="B21" dT="2022-04-27T06:22:26.45" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{BBB18CAF-791F-4B3A-AF7C-220A9F7F1D30}">
+    <text>포도주 시식</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -956,17 +1266,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="7"/>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -982,29 +1292,29 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1022,16 +1332,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>2839</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1040,14 +1350,14 @@
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
@@ -1067,11 +1377,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>1764</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -1088,12 +1398,12 @@
       <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2">
@@ -1113,7 +1423,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
@@ -1133,7 +1443,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2">
@@ -1153,7 +1463,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="59.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2">
@@ -1176,7 +1486,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="2">
@@ -1196,7 +1506,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="158.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2">
@@ -1218,38 +1528,275 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12" spans="1:14" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1516</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1520</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="138.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1562</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="115.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1699</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="82.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1904</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1912</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1932</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1937</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2096</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2156</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:I12" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I3 A12:I421 A4:D11 G4:I11">
+  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A22:I421 A21:D21 G13:I21">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B2&lt;&gt;""</formula>
+      <formula>$B20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{6A70C3A3-3BDE-4FA2-96F4-D23B0CCF6FD4}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{F0352995-78B9-4F0D-8922-68E94E3B2B3D}"/>
-    <hyperlink ref="A5:A9" r:id="rId3" display="다이나믹 프로그래밍" xr:uid="{F63165DC-4C4C-4FB2-AA51-86A40683A6DD}"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://www.acmicpc.net/problem/2839" xr:uid="{8633029C-7106-404B-945B-BC944867C52F}"/>
-    <hyperlink ref="B4" r:id="rId5" display="https://www.acmicpc.net/problem/1003" xr:uid="{F39D8A3C-5F29-4B7C-8046-A784963709EF}"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://www.acmicpc.net/problem/1764" xr:uid="{6F2AFA22-F33C-41C4-BAE5-F2A4A1C62C57}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.acmicpc.net/problem/1010" xr:uid="{697CDE3C-1E9A-4F33-9610-34CC32635310}"/>
-    <hyperlink ref="B7" r:id="rId8" display="https://www.acmicpc.net/problem/1149" xr:uid="{1DFAC2D4-404D-48BE-9F76-0EF788E8DD10}"/>
-    <hyperlink ref="B8" r:id="rId9" display="https://www.acmicpc.net/problem/1309" xr:uid="{958032A8-A7EA-4E30-85A4-F8B524D211F0}"/>
-    <hyperlink ref="B9" r:id="rId10" display="https://www.acmicpc.net/problem/1446" xr:uid="{7CBA8BC6-30D0-40E1-A037-518BAFAFCFE4}"/>
-    <hyperlink ref="A10" r:id="rId11" xr:uid="{78A11D47-340F-41B5-9C03-62EB45D6D6A1}"/>
-    <hyperlink ref="B10" r:id="rId12" display="https://www.acmicpc.net/problem/1463" xr:uid="{8ADD9A7B-4375-4B7B-B679-A06A570D8EE0}"/>
-    <hyperlink ref="B11" r:id="rId13" display="https://www.acmicpc.net/problem/1509" xr:uid="{AED4A2BE-513C-4802-8F49-EA5015704F50}"/>
-    <hyperlink ref="A11" r:id="rId14" xr:uid="{180FA08F-6171-4FE5-94F0-9EA2EA772F33}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.acmicpc.net/problem/2839" xr:uid="{8633029C-7106-404B-945B-BC944867C52F}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.acmicpc.net/problem/1003" xr:uid="{F39D8A3C-5F29-4B7C-8046-A784963709EF}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.acmicpc.net/problem/1005" xr:uid="{6F2AFA22-F33C-41C4-BAE5-F2A4A1C62C57}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.acmicpc.net/problem/1010" xr:uid="{697CDE3C-1E9A-4F33-9610-34CC32635310}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.acmicpc.net/problem/1149" xr:uid="{1DFAC2D4-404D-48BE-9F76-0EF788E8DD10}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://www.acmicpc.net/problem/1309" xr:uid="{958032A8-A7EA-4E30-85A4-F8B524D211F0}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.acmicpc.net/problem/1446" xr:uid="{7CBA8BC6-30D0-40E1-A037-518BAFAFCFE4}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.acmicpc.net/problem/1463" xr:uid="{8ADD9A7B-4375-4B7B-B679-A06A570D8EE0}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.acmicpc.net/problem/1509" xr:uid="{AED4A2BE-513C-4802-8F49-EA5015704F50}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://www.acmicpc.net/problem/1516" xr:uid="{25B69261-1100-4036-8ABF-D109368732B2}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.acmicpc.net/problem/1520" xr:uid="{3CDE4E27-770B-46EC-A4D3-302C90FCF836}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://www.acmicpc.net/problem/1562" xr:uid="{48EDA17D-5953-450E-9FD9-7E06E7FBF2AB}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://www.acmicpc.net/problem/1699" xr:uid="{662BFA43-3894-4ABB-9209-8012C64A5DAD}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://www.acmicpc.net/problem/1904" xr:uid="{AFAE43EF-3D7F-4896-A1BE-6B0E0CB753F7}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.acmicpc.net/problem/1912" xr:uid="{3A07EC59-0AAE-4ECC-BDC8-B4135497366A}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://www.acmicpc.net/problem/1932" xr:uid="{678C2E72-29C3-4893-A6AF-0F27EF98818F}"/>
+    <hyperlink ref="K5" r:id="rId18" xr:uid="{A9D8952F-8820-425F-AF8E-61DD4ACB6FE9}"/>
+    <hyperlink ref="A4:A18" r:id="rId19" display="다이나믹 프로그래밍" xr:uid="{DE16214E-7951-438D-83D7-89450B382163}"/>
+    <hyperlink ref="B19" r:id="rId20" display="https://www.acmicpc.net/problem/1937" xr:uid="{BB776622-1879-43C8-BACF-3EC08AE72FE3}"/>
+    <hyperlink ref="A19" r:id="rId21" xr:uid="{DA33A53E-6D8D-459B-B6C1-0F0EC690032F}"/>
+    <hyperlink ref="B20" r:id="rId22" display="https://www.acmicpc.net/problem/2096" xr:uid="{4FB600FB-9F15-4455-A0BC-2A635814E964}"/>
+    <hyperlink ref="A20" r:id="rId23" xr:uid="{6A8A7E58-0DC8-4790-987E-039E440C5B1A}"/>
+    <hyperlink ref="B21" r:id="rId24" display="https://www.acmicpc.net/problem/2156" xr:uid="{E0AEDB64-E7CD-44CF-8191-9885AACCD9AA}"/>
+    <hyperlink ref="A21" r:id="rId25" xr:uid="{3A264808-F049-439E-9222-34575C5DE7DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
-  <legacyDrawing r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15876DC3-54A4-49B7-B69B-44F11D3BF115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62285D92-24A2-4ECF-82C1-25D1AF1209C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
@@ -62,6 +62,13 @@
     <author>tc={6A91F6E7-E758-4CF6-8746-AE961867CDD4}</author>
     <author>tc={E3BAE512-3040-4222-A580-FEF67DC5642B}</author>
     <author>tc={BBB18CAF-791F-4B3A-AF7C-220A9F7F1D30}</author>
+    <author>tc={DC2C395E-3B08-4147-8744-12F4F5438953}</author>
+    <author>tc={BAB6B378-48AB-42B8-9593-7585F9E224FE}</author>
+    <author>tc={468D1BD7-BF27-4399-BB50-7A7E0629A475}</author>
+    <author>tc={23C415FA-19D4-4827-9443-6845C0F690BF}</author>
+    <author>tc={7DF2BC77-A054-4043-AA7B-9DE8D12E7A4E}</author>
+    <author>tc={93774073-871D-4427-B6E7-C8237D5315AB}</author>
+    <author>tc={BB9B98F4-C21F-4E13-9A8B-4321F4AF3491}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -248,12 +255,68 @@
     포도주 시식</t>
       </text>
     </comment>
+    <comment ref="B22" authorId="22" shapeId="0" xr:uid="{DC2C395E-3B08-4147-8744-12F4F5438953}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    로봇 조종하기</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="23" shapeId="0" xr:uid="{BAB6B378-48AB-42B8-9593-7585F9E224FE}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    이친수</t>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="24" shapeId="0" xr:uid="{468D1BD7-BF27-4399-BB50-7A7E0629A475}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    트리의 독립집합</t>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="25" shapeId="0" xr:uid="{23C415FA-19D4-4827-9443-6845C0F690BF}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    합분해</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="26" shapeId="0" xr:uid="{7DF2BC77-A054-4043-AA7B-9DE8D12E7A4E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    동전 1</t>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="27" shapeId="0" xr:uid="{93774073-871D-4427-B6E7-C8237D5315AB}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    전깃줄</t>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="28" shapeId="0" xr:uid="{BB9B98F4-C21F-4E13-9A8B-4321F4AF3491}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    계단 오르기</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,6 +632,97 @@
     <t>제한 조건이 있는 누적 합.
 제한 조건을 거치는 경우의 수를 파악해서, 각 경우의 수별로 DP를 따로 관리해야 한다.
 점화식 : DP[ I ] = MAX(DP[가능한 대상들]) || DP[ I - 1 ] + C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP는 항상 똑같다. 나한테 올 수 있는 경우의 수를 생각해 본 뒤, 이전 단계에서 그 값이 필연적으로 구해져 있을 것이고, 그 값을 가져오기만 하면 된다.
+점화식 : DP[ I ] = MAX(DP[가능한 대상들])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재귀를 이용해서 DP를 구하는 경우, 이미 탐색한 곳은 종료 지점쪽이다. 즉, 출발지에서 현 재귀의 시발점까지는 탐색하지 않은 곳이며, 현 재귀에서 더 뻗어나간 재귀까지가 이미 탐색한 곳이다.
+점화식 : DP[ I ] = MAX(DP[가능한 대상들])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1904와 같이 내 앞에서 무슨 일이 일어나건간에, 앞에서 구한 데이터에 꼬리가 붙는 형태로 신장된다.
+점화식 : DP[ I ] = DP[ I - 1 ] + C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">숫자를 쪼갤 때는 다음과 같은 두 경우의 수가 있다.
+1. 순서가 상관 있는 경우
+》 이 경우는 단순히 꼬리 붙이기 형태다. 이전 단계에서 구한 dp에 가능한 숫자를 덧붙이면 되기에 크게 어렵지 않다. 주 흐름은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>목표 숫자로 다가가는 것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">으로 한다.
+2. 순서가 상관 없는 경우
+》 이 경우는 주 흐름을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쪼갤 수 있는 숫자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 가져간다. 특히 이 문제의 경우 동전 단위라는 쪼갤 수 있는 숫자가 한정된 경우에 대해 다루기에, 흐름의 중점을 '현재 작업중인 동전 단위의 개수'로 봐야 한다.
+점화식 : DP[ I ] = DP[ I - C ] + 1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIS의 순한 맛.
+양 끝단에서 한 칸씩 전진하며 이전 값을 참조하는 쉬운 DP 문제.
+점화식 : DP[ I ] = MAX(DP[ I TO END ])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나한테 올 수 있는 경우의 수를 전부 따지면 된다.
+점화식 : DP[ I ] = MAX(DP[가능한 대상들])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,14 +909,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,18 +1396,39 @@
   <threadedComment ref="B21" dT="2022-04-27T06:22:26.45" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{BBB18CAF-791F-4B3A-AF7C-220A9F7F1D30}">
     <text>포도주 시식</text>
   </threadedComment>
+  <threadedComment ref="B22" dT="2022-04-28T03:54:47.88" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{DC2C395E-3B08-4147-8744-12F4F5438953}">
+    <text>로봇 조종하기</text>
+  </threadedComment>
+  <threadedComment ref="B23" dT="2022-04-28T04:05:06.50" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{BAB6B378-48AB-42B8-9593-7585F9E224FE}">
+    <text>이친수</text>
+  </threadedComment>
+  <threadedComment ref="B24" dT="2022-04-28T04:26:44.02" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{468D1BD7-BF27-4399-BB50-7A7E0629A475}">
+    <text>트리의 독립집합</text>
+  </threadedComment>
+  <threadedComment ref="B25" dT="2022-04-28T04:42:56.24" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{23C415FA-19D4-4827-9443-6845C0F690BF}">
+    <text>합분해</text>
+  </threadedComment>
+  <threadedComment ref="B26" dT="2022-04-28T05:01:52.04" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{7DF2BC77-A054-4043-AA7B-9DE8D12E7A4E}">
+    <text>동전 1</text>
+  </threadedComment>
+  <threadedComment ref="B27" dT="2022-04-28T05:10:59.32" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{93774073-871D-4427-B6E7-C8237D5315AB}">
+    <text>전깃줄</text>
+  </threadedComment>
+  <threadedComment ref="B28" dT="2022-04-28T05:13:38.19" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{BB9B98F4-C21F-4E13-9A8B-4321F4AF3491}">
+    <text>계단 오르기</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1266,17 +1441,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="7"/>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -1310,11 +1485,11 @@
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1573,7 @@
       <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1640,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
@@ -1660,7 +1835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
@@ -1680,7 +1855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="100.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
@@ -1700,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -1720,7 +1895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>1</v>
       </c>
@@ -1738,6 +1913,149 @@
       </c>
       <c r="F21" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2169</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2193</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2213</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2225</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="209.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2293</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2565</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2579</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1751,21 +2069,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A22:I421 A21:D21 G13:I21">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A29:I421 A24:D28 G13:I28">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B20&lt;&gt;""</formula>
+      <formula>$B23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1794,9 +2117,23 @@
     <hyperlink ref="A20" r:id="rId23" xr:uid="{6A8A7E58-0DC8-4790-987E-039E440C5B1A}"/>
     <hyperlink ref="B21" r:id="rId24" display="https://www.acmicpc.net/problem/2156" xr:uid="{E0AEDB64-E7CD-44CF-8191-9885AACCD9AA}"/>
     <hyperlink ref="A21" r:id="rId25" xr:uid="{3A264808-F049-439E-9222-34575C5DE7DA}"/>
+    <hyperlink ref="B22" r:id="rId26" display="https://www.acmicpc.net/problem/2169" xr:uid="{481D5506-10B2-479F-B11D-5687532F1012}"/>
+    <hyperlink ref="A22" r:id="rId27" xr:uid="{DFCB90CF-CFD8-4D21-B345-F8FAAD5B3281}"/>
+    <hyperlink ref="A23" r:id="rId28" xr:uid="{A9D31EAF-7CC1-49E8-95ED-470E470C7FFA}"/>
+    <hyperlink ref="B23" r:id="rId29" display="https://www.acmicpc.net/problem/2193" xr:uid="{EF468611-53BE-4986-BE62-9EC0AA9D368E}"/>
+    <hyperlink ref="B24" r:id="rId30" display="https://www.acmicpc.net/problem/2213" xr:uid="{2F1FF60A-47B9-4B96-A769-55B9A4121302}"/>
+    <hyperlink ref="A24" r:id="rId31" xr:uid="{D548D0C4-5DEB-4DAD-8B49-238D9A688AFE}"/>
+    <hyperlink ref="A25" r:id="rId32" xr:uid="{34F06428-A0EA-48E4-A005-8D5766EAA6E2}"/>
+    <hyperlink ref="B25" r:id="rId33" display="https://www.acmicpc.net/problem/2225" xr:uid="{AF4EA0AA-90C3-467E-846B-8C9C92DE6072}"/>
+    <hyperlink ref="A26" r:id="rId34" xr:uid="{40F3347B-75BE-4E6D-9C8C-8FF6886DAE9C}"/>
+    <hyperlink ref="B26" r:id="rId35" display="https://www.acmicpc.net/problem/2293" xr:uid="{17BE0459-E815-4453-A9A5-1FC569D864B8}"/>
+    <hyperlink ref="B27" r:id="rId36" display="https://www.acmicpc.net/problem/2565" xr:uid="{1EEBD634-9F29-4E0B-89F3-44844B4F09FE}"/>
+    <hyperlink ref="A27" r:id="rId37" xr:uid="{5D4DAACE-C06A-4003-BE7C-266E9D489A18}"/>
+    <hyperlink ref="B28" r:id="rId38" display="https://www.acmicpc.net/problem/2579" xr:uid="{58C1154C-6702-4CA4-9EB4-70DAF463F9FB}"/>
+    <hyperlink ref="A28" r:id="rId39" xr:uid="{E2D1D7F9-33EA-478B-A225-9127A3C0F05E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <legacyDrawing r:id="rId41"/>
 </worksheet>
 </file>
--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62285D92-24A2-4ECF-82C1-25D1AF1209C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDB039-A9B9-4450-86DF-AC6CA7DFB92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
@@ -69,6 +69,11 @@
     <author>tc={7DF2BC77-A054-4043-AA7B-9DE8D12E7A4E}</author>
     <author>tc={93774073-871D-4427-B6E7-C8237D5315AB}</author>
     <author>tc={BB9B98F4-C21F-4E13-9A8B-4321F4AF3491}</author>
+    <author>tc={DB8BA70D-5661-4F96-8AF1-FD886CB370E8}</author>
+    <author>tc={70BB63EA-941F-46CF-93A1-7DF50F288C75}</author>
+    <author>tc={ACFE9479-07EA-49FC-9C21-E44324073CCD}</author>
+    <author>tc={74A8624C-0821-4ACA-8C47-00B91C437B8B}</author>
+    <author>tc={D039735C-BD88-4DB4-B040-51F4AAFCD43E}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -311,12 +316,52 @@
     계단 오르기</t>
       </text>
     </comment>
+    <comment ref="B29" authorId="29" shapeId="0" xr:uid="{DB8BA70D-5661-4F96-8AF1-FD886CB370E8}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    피보나치 수 2</t>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="30" shapeId="0" xr:uid="{70BB63EA-941F-46CF-93A1-7DF50F288C75}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    공통 부분 문자열</t>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="31" shapeId="0" xr:uid="{ACFE9479-07EA-49FC-9C21-E44324073CCD}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    1, 2, 3 더하기</t>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="32" shapeId="0" xr:uid="{74A8624C-0821-4ACA-8C47-00B91C437B8B}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    신나는 함수 실행</t>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="33" shapeId="0" xr:uid="{D039735C-BD88-4DB4-B040-51F4AAFCD43E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    LCS</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="58">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,6 +768,31 @@
   <si>
     <t>나한테 올 수 있는 경우의 수를 전부 따지면 된다.
 점화식 : DP[ I ] = MAX(DP[가능한 대상들])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나한테 올 수 있는 경우의 수를 전부 따지면 된다.
+점화식 : DP[ I ] = DP[ I - 1 ] + DP[ I - 2 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCS에 연속 성질을 더한 문제.
+문자열의 길이가 4000으로 그렇게 길지 않기에 가능.
+DP에 저장되는 값은 "두 문자열의 끄트머리가 LCS이며 그 길이"로, 만약 두 문자열의 끝 문자가 서로 다르면 0으로 초기화된다. 그렇기 때문에, LCS가 신장될 때 마다 MAX를 계산해줘야 한다.
+일반 LCS에서는 문자열의 끄트머리가 뭐냐에 관계없이 계속해서 MAX값을 저장해 나갔기 때문에, 매번 MAX 계산이 필요 없는 부분이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2293 참고
+순서가 상관 있는 쪼개기 문제이기에, 흐름대로 쭉 나가면 된다.
+점화식 : DP[ I ] = DP[ I -1 ] + DP[ I - 2 ] + DP[ I - 3 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP에 대한 본질이다.
+기존에 DP를 사용하는 이유는 답을 찾기 위해서 중간에 거쳐가는 관문이었다면, 이 문제는 답을 찾아나가는 과정에서 한 번 방문한적이 있던 값을 찾아 쓰는 방식이다.
+전자가 DP가 심화됨에 따라 착각하는 DP에 대한 정의라면, 후자가 원래 DP의 본질에 더 가까운 것이다.
+점화식 : DP[ I ] = DP[ I - 1] + DP[ I - 2 ] + …</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1417,18 +1487,33 @@
   <threadedComment ref="B28" dT="2022-04-28T05:13:38.19" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{BB9B98F4-C21F-4E13-9A8B-4321F4AF3491}">
     <text>계단 오르기</text>
   </threadedComment>
+  <threadedComment ref="B29" dT="2022-04-29T07:08:15.94" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{DB8BA70D-5661-4F96-8AF1-FD886CB370E8}">
+    <text>피보나치 수 2</text>
+  </threadedComment>
+  <threadedComment ref="B30" dT="2022-04-29T07:21:35.43" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{70BB63EA-941F-46CF-93A1-7DF50F288C75}">
+    <text>공통 부분 문자열</text>
+  </threadedComment>
+  <threadedComment ref="B31" dT="2022-04-29T07:37:43.21" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{ACFE9479-07EA-49FC-9C21-E44324073CCD}">
+    <text>1, 2, 3 더하기</text>
+  </threadedComment>
+  <threadedComment ref="B32" dT="2022-04-29T07:55:26.71" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{74A8624C-0821-4ACA-8C47-00B91C437B8B}">
+    <text>신나는 함수 실행</text>
+  </threadedComment>
+  <threadedComment ref="B33" dT="2022-04-29T07:59:58.89" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{D039735C-BD88-4DB4-B040-51F4AAFCD43E}">
+    <text>LCS</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2018,7 +2103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="79.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>1</v>
       </c>
@@ -2056,6 +2141,94 @@
       </c>
       <c r="F28" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2748</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5582</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9095</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="138.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9184</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9251</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2244,7 @@
   <conditionalFormatting sqref="B2:B1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A29:I421 A24:D28 G13:I28">
+  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A24:D32 G13:I32 A33:I421">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
@@ -2131,9 +2304,19 @@
     <hyperlink ref="A27" r:id="rId37" xr:uid="{5D4DAACE-C06A-4003-BE7C-266E9D489A18}"/>
     <hyperlink ref="B28" r:id="rId38" display="https://www.acmicpc.net/problem/2579" xr:uid="{58C1154C-6702-4CA4-9EB4-70DAF463F9FB}"/>
     <hyperlink ref="A28" r:id="rId39" xr:uid="{E2D1D7F9-33EA-478B-A225-9127A3C0F05E}"/>
+    <hyperlink ref="A29" r:id="rId40" xr:uid="{BF58A791-215E-451C-AA23-A9D204F723B6}"/>
+    <hyperlink ref="B29" r:id="rId41" display="https://www.acmicpc.net/problem/2748" xr:uid="{D375CF60-1C4F-499A-ABF9-FF213C3FFA7B}"/>
+    <hyperlink ref="A30" r:id="rId42" xr:uid="{6562D752-3E9C-41AB-B865-06F975B71346}"/>
+    <hyperlink ref="B30" r:id="rId43" display="https://www.acmicpc.net/problem/5582" xr:uid="{E0C65F60-2B6E-4032-9DB0-5BC828CA5978}"/>
+    <hyperlink ref="A31" r:id="rId44" xr:uid="{975E2DD4-CC13-4C38-B3E7-8C95E4A2A329}"/>
+    <hyperlink ref="B31" r:id="rId45" display="https://www.acmicpc.net/problem/9095" xr:uid="{2B8439D0-5B4C-4E51-8AD1-886BE98A9526}"/>
+    <hyperlink ref="A32" r:id="rId46" xr:uid="{DF6CB7ED-B978-468B-8824-7367C9762C15}"/>
+    <hyperlink ref="B32" r:id="rId47" display="https://www.acmicpc.net/problem/9184" xr:uid="{26A42BDB-570E-4F9A-83B7-F9E09F34D389}"/>
+    <hyperlink ref="A33" r:id="rId48" xr:uid="{03B06B88-F7AC-4D45-8AF4-B2F1B7174547}"/>
+    <hyperlink ref="B33" r:id="rId49" display="https://www.acmicpc.net/problem/9251" xr:uid="{E5BE5CAA-5C62-420C-8243-15C88C259838}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
-  <legacyDrawing r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <legacyDrawing r:id="rId51"/>
 </worksheet>
 </file>
--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDB039-A9B9-4450-86DF-AC6CA7DFB92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAF1983-5FB3-4E37-9C84-5FD74E1E490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,6 +74,15 @@
     <author>tc={ACFE9479-07EA-49FC-9C21-E44324073CCD}</author>
     <author>tc={74A8624C-0821-4ACA-8C47-00B91C437B8B}</author>
     <author>tc={D039735C-BD88-4DB4-B040-51F4AAFCD43E}</author>
+    <author>tc={19BD03C7-C5FF-4A6A-B02B-B3CF1AAEEE42}</author>
+    <author>tc={D3994A5E-3F83-423F-8263-D7D18F944846}</author>
+    <author>tc={8D63A424-37A9-4D03-BDDF-A69CDFFB01C7}</author>
+    <author>tc={6CDB7B9A-E74A-49C7-9E72-2E4E3AAAE33D}</author>
+    <author>tc={7B9D727A-2136-46B5-893E-FE172E52CE1A}</author>
+    <author>tc={85A81ADE-179D-4BF2-A5D6-1C2BB5FD4A52}</author>
+    <author>tc={7DD2E4A0-0596-4613-9405-2295EA2431EF}</author>
+    <author>tc={601DDDA1-2591-4D98-AC4F-04E6CF7C7E9A}</author>
+    <author>tc={4EE559BC-CD23-4D2A-92DB-248FF68EF275}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -356,12 +365,84 @@
     LCS</t>
       </text>
     </comment>
+    <comment ref="B34" authorId="34" shapeId="0" xr:uid="{19BD03C7-C5FF-4A6A-B02B-B3CF1AAEEE42}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    파도반 수열</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="35" shapeId="0" xr:uid="{D3994A5E-3F83-423F-8263-D7D18F944846}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    스티커</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="36" shapeId="0" xr:uid="{8D63A424-37A9-4D03-BDDF-A69CDFFB01C7}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    쉬운 계단 수</t>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="37" shapeId="0" xr:uid="{6CDB7B9A-E74A-49C7-9E72-2E4E3AAAE33D}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    팰린드롬?</t>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="38" shapeId="0" xr:uid="{7B9D727A-2136-46B5-893E-FE172E52CE1A}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    이동하기</t>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="39" shapeId="0" xr:uid="{85A81ADE-179D-4BF2-A5D6-1C2BB5FD4A52}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    행렬 곱셈 순서</t>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="40" shapeId="0" xr:uid="{7DD2E4A0-0596-4613-9405-2295EA2431EF}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    이항 계수 2</t>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="41" shapeId="0" xr:uid="{601DDDA1-2591-4D98-AC4F-04E6CF7C7E9A}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    카드 구매하기</t>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="42" shapeId="0" xr:uid="{4EE559BC-CD23-4D2A-92DB-248FF68EF275}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    가장 긴 증가하는 부분 수열</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,6 +874,57 @@
 기존에 DP를 사용하는 이유는 답을 찾기 위해서 중간에 거쳐가는 관문이었다면, 이 문제는 답을 찾아나가는 과정에서 한 번 방문한적이 있던 값을 찾아 쓰는 방식이다.
 전자가 DP가 심화됨에 따라 착각하는 DP에 대한 정의라면, 후자가 원래 DP의 본질에 더 가까운 것이다.
 점화식 : DP[ I ] = DP[ I - 1] + DP[ I - 2 ] + …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 기초적인 LCS 문제.
+DP에는 현재까지의 문자열의 LCS가 저장되어있으며, 동일한 문자가 나올 때 마다 LCS의 길이가 1씩 증가하게 된다.
+만약 동일한 문자가 안 나올 경우, 지금까지 나온 LCS중에서 최댓값을 저장하기에 MAX로 판별하는 코드가 있다.
+시작점이 고정되어 있지 않기에, 처음부터 끝까지 모두 순회하면서 판단해야 한다.
+점화식 : DP[ I ] = MAX(….) || DP[ I - 1 ] + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 단계에서 선택할 수 있는 경우가 많고, 각 경우에 대해서 추후에 최댓값(혹은 최솟값)을 판별하는 문제 유형이다.
+DP 배열의 행이 1개가 아닌 경우의 수 만큼 등장하는 문제 유형이다.
+점화식 : DP[ I ] = MAX(….) + C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1562의 순한 맛
+목적지로 갈 수 있는 곳들에 대해 경우의 수를 더하면 됨.
+점화식 : DP[ I ] = DP[ A ] + DP[ B ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 끝단이 같고 중간이 팰린드롬이면 전체가 팰린드롬인 성질을 이용해서 팰린드롬을 판별한다.
+점화식 : DP[ I ] = DP[ I - 2 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팰린드롬과 유사하게 길이 별로 경우의 수를 나눠서 생각해야 한다.
+시작하는 점이 0이 아닌 다양한 곳에서 시작하기에, 전체를 순회 탐색해야한다.
+팰린드롬처럼 맨 마지막에 전체 데이터를 대상으로 쪼개가면서 확인해야 하기에, 각 토막토막에 대한 세부 정보를 얻는 것을 목표로 하는 문제다.
+점화식 : DP[ I ] = MIN(…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피보나치 수와 정확히 동일한, 수학의 정의 그 자체가 DP인 문제
+점화식 : DP[ I ] = DP[ I - 1 ] + DP[ I - 2 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪼갤 수 있는 단위가 정해진 쪼개기 문제 중 가장 순한 맛.
+쪼개는 단위의 크기를 증가시키는 것을 주 흐름으로 잡는다.
+점화식 : DP[ I ] = MAX(…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIS의 왕기초
+LIS는 그리디한 성질이 있다. LIS의 DP배열은 'DP INDEX의 길이를 갖는 LIS의 가장 마지막 숫자'가 저장된다. 
+LIS를 구하기 위해서는 처음부터 끝까지 RAWDATA를 읽으면서 진행한다. DP에 저장 된 마지막 숫자보다 더 큰 숫자를 읽으면 DP의 맨 마지막에 숫자를 저장한다.
+이 경우가 아니면, DP를 앞에서부터 읽어가며 '지금 RAWDATA에서 읽은 숫자보다 같거나 큰 숫자가 처음 나오는 곳'에 해당 숫자를 저장한다. 해당 길이에서 마지막 숫자가 작으면 작을수록 LIS가 더 길게 신장되기에, 그 성질을 이용하는 것이다.
+점화식 : 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1502,18 +1634,45 @@
   <threadedComment ref="B33" dT="2022-04-29T07:59:58.89" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{D039735C-BD88-4DB4-B040-51F4AAFCD43E}">
     <text>LCS</text>
   </threadedComment>
+  <threadedComment ref="B34" dT="2022-05-02T03:50:56.41" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{19BD03C7-C5FF-4A6A-B02B-B3CF1AAEEE42}">
+    <text>파도반 수열</text>
+  </threadedComment>
+  <threadedComment ref="B35" dT="2022-05-02T03:53:07.06" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{D3994A5E-3F83-423F-8263-D7D18F944846}">
+    <text>스티커</text>
+  </threadedComment>
+  <threadedComment ref="B36" dT="2022-05-02T04:25:12.64" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{8D63A424-37A9-4D03-BDDF-A69CDFFB01C7}">
+    <text>쉬운 계단 수</text>
+  </threadedComment>
+  <threadedComment ref="B37" dT="2022-05-02T04:35:08.39" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{6CDB7B9A-E74A-49C7-9E72-2E4E3AAAE33D}">
+    <text>팰린드롬?</text>
+  </threadedComment>
+  <threadedComment ref="B38" dT="2022-05-02T04:43:02.02" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{7B9D727A-2136-46B5-893E-FE172E52CE1A}">
+    <text>이동하기</text>
+  </threadedComment>
+  <threadedComment ref="B39" dT="2022-05-02T05:07:26.62" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{85A81ADE-179D-4BF2-A5D6-1C2BB5FD4A52}">
+    <text>행렬 곱셈 순서</text>
+  </threadedComment>
+  <threadedComment ref="B40" dT="2022-05-02T05:13:04.96" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{7DD2E4A0-0596-4613-9405-2295EA2431EF}">
+    <text>이항 계수 2</text>
+  </threadedComment>
+  <threadedComment ref="B41" dT="2022-05-02T05:35:00.26" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{601DDDA1-2591-4D98-AC4F-04E6CF7C7E9A}">
+    <text>카드 구매하기</text>
+  </threadedComment>
+  <threadedComment ref="B42" dT="2022-05-02T05:55:51.75" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{4EE559BC-CD23-4D2A-92DB-248FF68EF275}">
+    <text>가장 긴 증가하는 부분 수열</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2223,16 +2382,208 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="156" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="2">
         <v>9251</v>
       </c>
+      <c r="C33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9461</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>9465</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>10844</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10942</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>11048</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>11049</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2">
+        <v>11051</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>11052</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="211.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2">
+        <v>11053</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I12" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
+  <autoFilter ref="A2:I37" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
@@ -2244,7 +2595,7 @@
   <conditionalFormatting sqref="B2:B1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A24:D32 G13:I32 A33:I421">
+  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A43:I421 A24:D42 G13:I42">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
@@ -2314,9 +2665,27 @@
     <hyperlink ref="B32" r:id="rId47" display="https://www.acmicpc.net/problem/9184" xr:uid="{26A42BDB-570E-4F9A-83B7-F9E09F34D389}"/>
     <hyperlink ref="A33" r:id="rId48" xr:uid="{03B06B88-F7AC-4D45-8AF4-B2F1B7174547}"/>
     <hyperlink ref="B33" r:id="rId49" display="https://www.acmicpc.net/problem/9251" xr:uid="{E5BE5CAA-5C62-420C-8243-15C88C259838}"/>
+    <hyperlink ref="B34" r:id="rId50" display="ttps://www.acmicpc.net/problem/9461" xr:uid="{85E2D06B-8C13-4264-BFB8-B1D6020F9338}"/>
+    <hyperlink ref="A34" r:id="rId51" xr:uid="{B0F81C3E-59CE-43CD-8D42-A6A12E88FF78}"/>
+    <hyperlink ref="B35" r:id="rId52" display="ttps://www.acmicpc.net/problem/9465" xr:uid="{42097D20-3905-4BAA-B85D-6737E7DC9CDC}"/>
+    <hyperlink ref="A35" r:id="rId53" xr:uid="{EE97FAA0-DD51-46DB-8FE8-0C5C88BE2050}"/>
+    <hyperlink ref="B36" r:id="rId54" display="https://www.acmicpc.net/problem/10844" xr:uid="{5E140F98-0D18-48BD-8C28-E8E59F7C5645}"/>
+    <hyperlink ref="A36" r:id="rId55" xr:uid="{122EBC09-F6C1-4C46-B642-511D6945AC93}"/>
+    <hyperlink ref="B37" r:id="rId56" display="https://www.acmicpc.net/problem/10942" xr:uid="{08476390-2F84-4EC4-8805-B449247ED37B}"/>
+    <hyperlink ref="A37" r:id="rId57" xr:uid="{3ACFB34D-0694-4A94-B058-A496E0B2ACFF}"/>
+    <hyperlink ref="B38" r:id="rId58" display="https://www.acmicpc.net/problem/11048" xr:uid="{8DBC59EF-2A1C-4367-AEF5-5A6F0076CE60}"/>
+    <hyperlink ref="A38" r:id="rId59" xr:uid="{98BC73A0-90AD-43A3-8902-6F4B7AFE45F5}"/>
+    <hyperlink ref="A39" r:id="rId60" xr:uid="{279F5DA6-C6EF-4375-8B51-628C64A7CDE5}"/>
+    <hyperlink ref="B39" r:id="rId61" display="https://www.acmicpc.net/problem/11049" xr:uid="{0A5A2354-CCC9-42A9-9EDD-F4ED02852534}"/>
+    <hyperlink ref="A40" r:id="rId62" xr:uid="{0653D5D6-152D-45B0-8E82-B72CD86DBDED}"/>
+    <hyperlink ref="B40" r:id="rId63" display="https://www.acmicpc.net/problem/11051" xr:uid="{11C2ECEE-24A2-4A31-911D-77B8525FE064}"/>
+    <hyperlink ref="B41" r:id="rId64" display="https://www.acmicpc.net/problem/11052" xr:uid="{FDF94043-574A-4FC8-BEE1-BDA4CDEFF05B}"/>
+    <hyperlink ref="A41" r:id="rId65" xr:uid="{EA6244E8-88DD-442B-B70E-AF47DD4FC8AE}"/>
+    <hyperlink ref="B42" r:id="rId66" display="https://www.acmicpc.net/problem/11053" xr:uid="{E7D216A3-6ED8-40CE-BFDA-306304B54BDF}"/>
+    <hyperlink ref="A42" r:id="rId67" xr:uid="{6DBAA960-1A1A-4E14-B257-7D0CF5B8EC4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
-  <legacyDrawing r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <legacyDrawing r:id="rId69"/>
 </worksheet>
 </file>
--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAF1983-5FB3-4E37-9C84-5FD74E1E490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59694E-45AF-432E-ACFC-5233B97F3455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
@@ -83,6 +83,13 @@
     <author>tc={7DD2E4A0-0596-4613-9405-2295EA2431EF}</author>
     <author>tc={601DDDA1-2591-4D98-AC4F-04E6CF7C7E9A}</author>
     <author>tc={4EE559BC-CD23-4D2A-92DB-248FF68EF275}</author>
+    <author>tc={31902634-97A9-463A-9CC2-22C7A0DD6583}</author>
+    <author>tc={DA196511-5168-4C0E-9966-BFE0D6586B3A}</author>
+    <author>신재현</author>
+    <author>tc={C01469C9-8DD3-4DAE-83D3-1F4963A7C21D}</author>
+    <author>tc={AF2E2050-3C54-4E21-841E-12631A926FAD}</author>
+    <author>tc={2EF760CD-55DD-45A3-8040-4A55971A7920}</author>
+    <author>tc={4DCE6E57-B9F0-4489-AEFB-68AFC84D32D5}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -437,12 +444,221 @@
     가장 긴 증가하는 부분 수열</t>
       </text>
     </comment>
+    <comment ref="B43" authorId="43" shapeId="0" xr:uid="{31902634-97A9-463A-9CC2-22C7A0DD6583}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    가장 긴 바이토닉 부분 수열</t>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="44" shapeId="0" xr:uid="{DA196511-5168-4C0E-9966-BFE0D6586B3A}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    가장 큰 증가 부분 수열</t>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="45" shapeId="0" xr:uid="{0529004D-76E4-4BD8-B3D1-EDF659C9D7E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C99 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>형식으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작성되었기에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나중에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최신화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시킬것</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="46" shapeId="0" xr:uid="{C01469C9-8DD3-4DAE-83D3-1F4963A7C21D}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    오르막 수</t>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="47" shapeId="0" xr:uid="{AF2E2050-3C54-4E21-841E-12631A926FAD}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    파일 합치기</t>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="48" shapeId="0" xr:uid="{2EF760CD-55DD-45A3-8040-4A55971A7920}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    가장 긴 감소하는 부분 수열</t>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="49" shapeId="0" xr:uid="{4DCE6E57-B9F0-4489-AEFB-68AFC84D32D5}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    2×n 타일링</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="72">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,12 +1143,45 @@
 점화식 : 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LIS의 약간 응용.
+그래프에서 갈 곳이 아래, 오른쪽, 왼쪽으로 정해진 문제와 같이, 한 방향으로 한번, 다른 방향으로 한번 해서 두 값을 합한 값의 최댓값을 구하면 된다.
+점화식 : DP[ I ] = MAX(….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIS의 기초
+11053 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계단 수와 같이, 숫자의 끝 부분이 중요한 문제.
+점화식 : DP[ I ] = DP[ I -1 ] + DP[ I + 1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팰린드롬, 배열 곱셈 순서와 같이 분기점을 정하는 문제.
+분기점을 정하기 위해서는 각 분기점에 대해서 값을 평가하는 브루트 포스를 약간 사용하지만, 분기 된 덩어리의 값이 이미 계산 한 이력이 있을 경우, 이를 저장해서 사용하는 측면에서 DP를 사용한다.
+점화식 : DP[ I ] = MIN(…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 감소하는 부분 수열은 가장 긴 증가하는 부분 수열의 뒤집힌 버전이다.
+점화식 : 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초 타일 문제.
+앞에서 뭐가 어땠건간에 꼬리가 이어서 붙여지는 구조이며, 어떤 꼬리가 붙을지에 따라서 값이 정해진다.
+점화식 : DP[ I ] = DP [ I - 1 ] + DP[ I - 2 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1257,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1068,7 +1332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,12 +1384,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1661,18 +1946,36 @@
   <threadedComment ref="B42" dT="2022-05-02T05:55:51.75" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{4EE559BC-CD23-4D2A-92DB-248FF68EF275}">
     <text>가장 긴 증가하는 부분 수열</text>
   </threadedComment>
+  <threadedComment ref="B43" dT="2022-05-03T04:24:19.74" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{31902634-97A9-463A-9CC2-22C7A0DD6583}">
+    <text>가장 긴 바이토닉 부분 수열</text>
+  </threadedComment>
+  <threadedComment ref="B44" dT="2022-05-03T04:28:15.45" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{DA196511-5168-4C0E-9966-BFE0D6586B3A}">
+    <text>가장 큰 증가 부분 수열</text>
+  </threadedComment>
+  <threadedComment ref="B45" dT="2022-05-03T04:35:14.55" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{C01469C9-8DD3-4DAE-83D3-1F4963A7C21D}">
+    <text>오르막 수</text>
+  </threadedComment>
+  <threadedComment ref="B46" dT="2022-05-03T04:50:59.17" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{AF2E2050-3C54-4E21-841E-12631A926FAD}">
+    <text>파일 합치기</text>
+  </threadedComment>
+  <threadedComment ref="B47" dT="2022-05-03T04:55:21.94" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{2EF760CD-55DD-45A3-8040-4A55971A7920}">
+    <text>가장 긴 감소하는 부분 수열</text>
+  </threadedComment>
+  <threadedComment ref="B48" dT="2022-05-03T04:56:24.59" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{4DCE6E57-B9F0-4489-AEFB-68AFC84D32D5}">
+    <text>2×n 타일링</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2582,6 +2885,126 @@
         <v>8</v>
       </c>
     </row>
+    <row r="43" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>11054</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>11055</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>11057</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>11006</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>11722</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>11726</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:I37" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
     <filterColumn colId="6" showButton="0"/>
@@ -2593,26 +3016,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A43:I421 A24:D42 G13:I42">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A24:D46 A47:C47 A49:I421 A48:D48 G13:I48">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B23&lt;&gt;""</formula>
+      <formula>$B47&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2683,9 +3111,21 @@
     <hyperlink ref="A41" r:id="rId65" xr:uid="{EA6244E8-88DD-442B-B70E-AF47DD4FC8AE}"/>
     <hyperlink ref="B42" r:id="rId66" display="https://www.acmicpc.net/problem/11053" xr:uid="{E7D216A3-6ED8-40CE-BFDA-306304B54BDF}"/>
     <hyperlink ref="A42" r:id="rId67" xr:uid="{6DBAA960-1A1A-4E14-B257-7D0CF5B8EC4C}"/>
+    <hyperlink ref="B43" r:id="rId68" display="https://www.acmicpc.net/problem/11054" xr:uid="{FF3A4FB1-87C6-4863-BCFD-4CBF4311257B}"/>
+    <hyperlink ref="A43" r:id="rId69" xr:uid="{58138F36-2236-463F-82C9-FEA550518F32}"/>
+    <hyperlink ref="B44" r:id="rId70" display="https://www.acmicpc.net/problem/11055" xr:uid="{0DF104BF-EB80-40E1-829C-AE75AE59518D}"/>
+    <hyperlink ref="A44" r:id="rId71" xr:uid="{0ED90BBD-D2E1-46AE-B7A3-E20EE0BA7C0B}"/>
+    <hyperlink ref="B45" r:id="rId72" display="https://www.acmicpc.net/problem/11057" xr:uid="{E3405442-86D5-444C-91F0-DD07BB4C23A1}"/>
+    <hyperlink ref="A45" r:id="rId73" xr:uid="{BB4866A6-A677-4A5C-BAFA-D688BBC3D8D0}"/>
+    <hyperlink ref="A46" r:id="rId74" xr:uid="{E3EB68DF-419E-4E10-BB64-B3A50D7094C7}"/>
+    <hyperlink ref="B46" r:id="rId75" display="https://www.acmicpc.net/problem/11066" xr:uid="{13460EB1-4EB3-433C-B0F3-359D8ABA7885}"/>
+    <hyperlink ref="B47" r:id="rId76" display="https://www.acmicpc.net/problem/11722" xr:uid="{E358E5EB-8845-4BC0-90FE-A161361AE779}"/>
+    <hyperlink ref="A47" r:id="rId77" xr:uid="{9CF0427B-FC2C-4EF7-A803-F0B5584C1A51}"/>
+    <hyperlink ref="B48" r:id="rId78" display="https://www.acmicpc.net/problem/11726" xr:uid="{40F028E7-FAFE-416F-BC98-7124E5D8A7F0}"/>
+    <hyperlink ref="A48" r:id="rId79" xr:uid="{30D8F26C-50B1-4FB0-9A6D-F4A624EABFA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
-  <legacyDrawing r:id="rId69"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
+  <legacyDrawing r:id="rId81"/>
 </worksheet>
 </file>
--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59694E-45AF-432E-ACFC-5233B97F3455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F3FFF-F61B-444A-B25C-3D2A0C51E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="알고리즘 전체" sheetId="1" r:id="rId1"/>
+    <sheet name="다이나믹 프로그래밍" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'알고리즘 전체'!$A$2:$I$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,6 +91,14 @@
     <author>tc={AF2E2050-3C54-4E21-841E-12631A926FAD}</author>
     <author>tc={2EF760CD-55DD-45A3-8040-4A55971A7920}</author>
     <author>tc={4DCE6E57-B9F0-4489-AEFB-68AFC84D32D5}</author>
+    <author>tc={ED6B23D4-1870-4EE1-B376-628FA8E33B00}</author>
+    <author>tc={61FC9B93-8CF2-40E2-9EB7-13D8A300644C}</author>
+    <author>tc={B25D33E3-4EB5-42EF-A639-B53D0E3DE7DE}</author>
+    <author>tc={21C82D38-5168-4C46-9D53-57EDD5761D71}</author>
+    <author>tc={F7420FA6-E559-4FDF-B20F-B6E9AF1E3F29}</author>
+    <author>tc={62F65D01-17B1-4F6F-AD49-32891C251E3E}</author>
+    <author>tc={550314AE-BD48-426A-8ECF-C2567A5ACA54}</author>
+    <author>tc={1090462A-94BA-46A6-B93F-7E68EC4E38BF}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -653,12 +662,244 @@
     2×n 타일링</t>
       </text>
     </comment>
+    <comment ref="B49" authorId="50" shapeId="0" xr:uid="{ED6B23D4-1870-4EE1-B376-628FA8E33B00}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    2×n 타일링 2</t>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="51" shapeId="0" xr:uid="{61FC9B93-8CF2-40E2-9EB7-13D8A300644C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    평범한 배낭</t>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="52" shapeId="0" xr:uid="{B25D33E3-4EB5-42EF-A639-B53D0E3DE7DE}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    가장 긴 증가하는 부분 수열 4</t>
+      </text>
+    </comment>
+    <comment ref="D51" authorId="45" shapeId="0" xr:uid="{DAAD40CD-9420-4FE8-B3D2-3E36B659C2C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>신재현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+C99 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>형식으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작성되었기에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나중에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최신화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시킬것</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="53" shapeId="0" xr:uid="{21C82D38-5168-4C46-9D53-57EDD5761D71}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    퇴사</t>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="54" shapeId="0" xr:uid="{F7420FA6-E559-4FDF-B20F-B6E9AF1E3F29}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    선수과목 (Prerequisite)</t>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="55" shapeId="0" xr:uid="{62F65D01-17B1-4F6F-AD49-32891C251E3E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    최소 편집</t>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="56" shapeId="0" xr:uid="{550314AE-BD48-426A-8ECF-C2567A5ACA54}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    1, 2, 3 더하기 3</t>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="57" shapeId="0" xr:uid="{1090462A-94BA-46A6-B93F-7E68EC4E38BF}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    1, 2, 3 더하기 5</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="97">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1176,12 +1417,248 @@
 점화식 : DP[ I ] = DP [ I - 1 ] + DP[ I - 2 ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기초 타일 문제 2
+11726과 동일한 논리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01냅색 문제의 원형
+냅색 문제도 1010 다리 놓기 문제와 같이 DP 2차원 행렬에서 가로 축을 지향점으로 놓고, 세로 축을 놓는 요소의 증가축으로 놓는다.
+또, 세로 축은 1씩 증가하는 것이 아닌, 증가하는 폭이 물건의 질량으로 DISCRETE 하기에, 더더욱 DP를 사용해야 함을 알 수 있다.
+점화식 : DP[ I ] = MAX(DP[ I - C ] + D, DP[ I - 1 ])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIS 문제의 전형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 이산적으로 증가하는 문제다.
+이산적으로 증가하는 문제에서는 가로 축이 지향점이 되며, 세로 축이 이산적으로 선택하는 경우의 수가 된다.
+때에 따라 세로 축은 처음부터 끝까지 누적 상태를 표현하기 위해 여러 행이 필요한 경우가 있으며, 또 어떤 경우에는 단순히 선택 비선택을 표현하기 위해 2개 내외의 행이 필요한 경우가 있다.
+이 문제는 특이하게 종료 지점을 넘어서는 시작 지점을 선택할 수 없기에, 종료 지점부터 탐색을 시작하게 된다.
+점화식 : DP[ I ][ J ] = DP[ I ][ J + 1 ] + C || MAX(...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위상 정렬을 할 때 반드시 필요한 데이터 : 자신의 선행 조건의 개수를 저장하는 배열, 자신을 선행 조건으로 갖는 대상의 INDEX
+선행 조건이 없는 대상부터 진행하면서, 선행 조건이 0이 되는 대상은 그 다음 TARGET이 된다.
+위상 정렬의 KEY POINT : 자기 자신을 진행하기 위해서는 자신 이전에 진행되어야 할 대상들 중 가장 늦게 끝나는 대상이 완료되어야 시작할 수 있다.
+점화식 : DP[ I ] = MAX(DP[ I의 선행조건들 ])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가하는 경우의 수가 DISCRETE 한 문제다.
+또, 순서가 상관 있는 문제이기에, 단순한 꼬리 붙이기 문제로 생각하면 된다.
+점화식 : DP[ I ] = MIN(….)+C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCS와 유사하게 두 문자열을 갖고 장난치는 경우의 수.
+문자열을 수정할 수 있는 경우의 수는 정해져 있고, 궁극적으로는 앞서 존재한 문자열을 고친 횟수+1(필요할 경우)로 현재 문자열을 바꾸는 데 필요한 수정 횟수가 나오기에, 전자를 DP로 만들어서 계산하면 된다.
+점화식 : DP[ I ] = MIN(….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더하는 경우의 수가 정해져 있고, 뒤에 끝나는 숫자가 제한된 문제다. 즉, 계단 수 문제와 15988을 적절히 혼합한 형태다.
+점화식 : DP[ I ][ J ] = DP[ I - 1 ][ J - 1 ] + DP[ I - 1 ][ J + 1 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 프로그래밍은 다음과 같은 문제 유형이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서대로 차례로 목표 값까지 진행하면서, 값을 차례차례 구한다.
+현재 값을 구하기 위해서는 이전 값을 참조한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">현재 값을 구하기 위해서 이전 값을 참조하는 것은 똑같으나, 현재 값이 여러 개 나오며,
+그 중에서 최대/최소값을 구하는 문제다.
+특히, 현재 값을 구하기 위해서 참조할 수 있는 이전 값들에 제한 조건이 걸린 유형이다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대표 문제 : RGB 거리(1149)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">궁극적인 목표 지점이 있으며, 목표 지점까지 도달하기 위해 설치할 구조물의 개수, 혹은 취할 물품의 개수 등의 생성 물질이 존재하는 문제다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대표 문제 : 다리 놓기(1010), 평범한 배낭(12865)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차원 DP배열을 만들고,
+가로 축을 목표 지점까지의 증가량(냅색에서는 배낭의 용량),
+세로 축을 생성 물질의 종류(냅색에서는 보석)로 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차원 배열을 만들어서 열의 개수는 시작 지점부터 목표 지점까지로 설정하고,
+현재 값의 경우의 수 만큼 DP 배열(행의 개수)을 만든다.
+제한 조건에 따라 이전 값의 몇 번째 행을 참조할 지가 정해진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차원 배열을 만들어서 열의 개수는 시작 지점부터 목표 지점까지로 설정하고,
+행의 개수는 가능한 모든 BOOLEAN 조합의 종류로 한다. 3개 이상의 행이 나올 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2번 유형과 유사하나, 현재 값의 경우의 수가 BOOLEAN TYPE인 경우다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대표 문제 : 동물원(1309), 포도주 시식(2156)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">별 다른 트릭 없이, 현재 값을 구하기 위해 이전 값을 참조해야 하는 경우이다.
+나한테로 올 수 있는 이전 값이 무엇인지를 확인하고 이를 기준으로 DP 배열을 만들면 된다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대표 문제 : 피보나치(1003), 지름길(1446)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">전체 문자열에서 중간중간 분절점이 생기고, 각 분절점의 왼쪽 및 오른쪽의 합산 값의 최대/최솟값을 구하는 유형이다. 나오면 플래급의 문제가 된다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대표 문제 : 팰린드롬 분할(1509), 파일 합치기(11066)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차원 DP배열을 만들고,
+가로축은 시작점, 세로축은 종료 지점으로 해서 평가값을 저장한다.
+평가 값은 미리 싹 만들고 시작해도 되고(1509), 그때그때 구해도 된다(11066).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그래프와 DP가 합쳐진 유형이다.
+그래프에서 DP를 사용하는 경우는 이미 방문한 곳을 또 방문해야 하거나,
+지금까지 올 수 있는 경우의 수 중 최대/최소 값을 구해야 하기 때문이다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대표 문제 : 내리막 길(1520), 욕심쟁이 판다(1937)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재방문이 필요한 경우, 그래프 탐색을 진행하며 결과값을 DP 배열에 저장하고,
+최대/최소 구하는 유형의 경우 일반적인 DP와 동일하게 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문자열을 이용한 DP 문제다. 특징적으로는 이전에 평가 된 문자열에 현재 문자 1개만 추가로 평가해서 값을 최신화시키면 되는 유형이다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+대표 문제 : LCS(9251), 최소 편집(15483)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차원 배열을 만들고, 각 문자열을 비교하는데, 주로 I,J-1 I-1,J I-1,J-1에서 오는 경우를 비교한다.
+주의할 사항은, 맨 앞에 NULL CHAR을 붙이는 것이며, 함수 내에서 ROW, COL에 바인딩 된 문자열이 무엇인지 항상 주의깊게 살피자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,8 +1749,32 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1283,6 +1784,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,18 +1888,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1964,18 +2501,42 @@
   <threadedComment ref="B48" dT="2022-05-03T04:56:24.59" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{4DCE6E57-B9F0-4489-AEFB-68AFC84D32D5}">
     <text>2×n 타일링</text>
   </threadedComment>
+  <threadedComment ref="B49" dT="2022-05-04T03:30:44.27" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{ED6B23D4-1870-4EE1-B376-628FA8E33B00}">
+    <text>2×n 타일링 2</text>
+  </threadedComment>
+  <threadedComment ref="B50" dT="2022-05-04T03:31:45.32" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{61FC9B93-8CF2-40E2-9EB7-13D8A300644C}">
+    <text>평범한 배낭</text>
+  </threadedComment>
+  <threadedComment ref="B51" dT="2022-05-04T03:55:22.08" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{B25D33E3-4EB5-42EF-A639-B53D0E3DE7DE}">
+    <text>가장 긴 증가하는 부분 수열 4</text>
+  </threadedComment>
+  <threadedComment ref="B52" dT="2022-05-04T03:58:03.33" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{21C82D38-5168-4C46-9D53-57EDD5761D71}">
+    <text>퇴사</text>
+  </threadedComment>
+  <threadedComment ref="B53" dT="2022-05-04T04:26:09.08" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{F7420FA6-E559-4FDF-B20F-B6E9AF1E3F29}">
+    <text>선수과목 (Prerequisite)</text>
+  </threadedComment>
+  <threadedComment ref="B54" dT="2022-05-04T04:47:57.43" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{62F65D01-17B1-4F6F-AD49-32891C251E3E}">
+    <text>최소 편집</text>
+  </threadedComment>
+  <threadedComment ref="B55" dT="2022-05-04T04:52:14.24" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{550314AE-BD48-426A-8ECF-C2567A5ACA54}">
+    <text>1, 2, 3 더하기 3</text>
+  </threadedComment>
+  <threadedComment ref="B56" dT="2022-05-04T04:57:49.61" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{1090462A-94BA-46A6-B93F-7E68EC4E38BF}">
+    <text>1, 2, 3 더하기 5</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1988,17 +2549,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="7"/>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -2032,11 +2593,11 @@
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
@@ -2552,7 +3113,7 @@
       <c r="B26" s="2">
         <v>2293</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2805,7 +3366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="155.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
         <v>1</v>
       </c>
@@ -2915,7 +3476,7 @@
       <c r="C44" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -2950,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>11006</v>
+        <v>11066</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>69</v>
@@ -3002,6 +3563,169 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>11727</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="120.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>12865</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>14002</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>14501</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>14567</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="118.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>15483</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>15988</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>15990</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3016,31 +3740,36 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A24:D46 A47:C47 A49:I421 A48:D48 G13:I48">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A24:D46 A47:C47 A48:D48 A49:C49 A57:I421 A50:D56 G13:I56">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$B12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B47&lt;&gt;""</formula>
+      <formula>$B49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3123,9 +3852,202 @@
     <hyperlink ref="A47" r:id="rId77" xr:uid="{9CF0427B-FC2C-4EF7-A803-F0B5584C1A51}"/>
     <hyperlink ref="B48" r:id="rId78" display="https://www.acmicpc.net/problem/11726" xr:uid="{40F028E7-FAFE-416F-BC98-7124E5D8A7F0}"/>
     <hyperlink ref="A48" r:id="rId79" xr:uid="{30D8F26C-50B1-4FB0-9A6D-F4A624EABFA2}"/>
+    <hyperlink ref="B49" r:id="rId80" display="https://www.acmicpc.net/problem/11727" xr:uid="{D5F86610-F073-4868-A051-8F03DD5BB8B0}"/>
+    <hyperlink ref="A49" r:id="rId81" xr:uid="{5402EE8A-0313-4262-B9C3-98AD72FCA076}"/>
+    <hyperlink ref="B50" r:id="rId82" display="https://www.acmicpc.net/problem/12865" xr:uid="{85A12FA7-3F27-42EF-AE61-354E838F15B2}"/>
+    <hyperlink ref="A50" r:id="rId83" xr:uid="{97073307-6052-438F-BCE1-715BE205EA1C}"/>
+    <hyperlink ref="B51" r:id="rId84" display="https://www.acmicpc.net/problem/14002" xr:uid="{5D8A5699-E5B8-4F38-9E55-546DCD007075}"/>
+    <hyperlink ref="A51" r:id="rId85" xr:uid="{492CD7C4-CBA4-418C-9519-EFC2683909E0}"/>
+    <hyperlink ref="B52" r:id="rId86" display="https://www.acmicpc.net/problem/14501" xr:uid="{C276CA4A-6B4E-4BF1-AA09-C77379C2E783}"/>
+    <hyperlink ref="A52" r:id="rId87" xr:uid="{63E9DA21-38FA-44DF-AD99-9461F2E671A3}"/>
+    <hyperlink ref="B53" r:id="rId88" display="https://www.acmicpc.net/problem/14567" xr:uid="{06E12D54-5199-4855-B25C-AB0125E25E42}"/>
+    <hyperlink ref="A53" r:id="rId89" xr:uid="{FB088844-BEB3-44C4-9942-BA11496637FE}"/>
+    <hyperlink ref="B54" r:id="rId90" display="https://www.acmicpc.net/problem/15483" xr:uid="{0E63B44F-07B7-4D89-BB25-853D2AD43042}"/>
+    <hyperlink ref="A54" r:id="rId91" xr:uid="{27EC5FCC-AB9A-4EDB-8C8F-533630D78A13}"/>
+    <hyperlink ref="B55" r:id="rId92" display="https://www.acmicpc.net/problem/15988" xr:uid="{15B1B909-EDDA-4BD5-AA9A-CCC87EA3664C}"/>
+    <hyperlink ref="A55" r:id="rId93" xr:uid="{AE9BBEE0-B7EE-4B01-92AB-D02BC435CC7B}"/>
+    <hyperlink ref="B56" r:id="rId94" display="https://www.acmicpc.net/problem/15990" xr:uid="{4AAD3A26-249C-4F39-92D8-635A69064C26}"/>
+    <hyperlink ref="A56" r:id="rId95" xr:uid="{CAF1CE5B-CA9F-49EC-B79D-72A23F304ED6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
-  <legacyDrawing r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <legacyDrawing r:id="rId97"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC911DBE-9406-4F0F-B29D-4FFA6436B5CC}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="79.59765625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="17"/>
+      <c r="B7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="17">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="17">
+        <v>7</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F3FFF-F61B-444A-B25C-3D2A0C51E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C22DB3-F920-4B1B-907D-CCC2C7BA9529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
   <sheets>
     <sheet name="알고리즘 전체" sheetId="1" r:id="rId1"/>
     <sheet name="다이나믹 프로그래밍" sheetId="2" r:id="rId2"/>
+    <sheet name="문자열" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'알고리즘 전체'!$A$2:$I$37</definedName>
@@ -99,6 +100,11 @@
     <author>tc={62F65D01-17B1-4F6F-AD49-32891C251E3E}</author>
     <author>tc={550314AE-BD48-426A-8ECF-C2567A5ACA54}</author>
     <author>tc={1090462A-94BA-46A6-B93F-7E68EC4E38BF}</author>
+    <author>tc={0F888367-00BF-4853-9EC7-15912409EDA1}</author>
+    <author>tc={CF8A9CBE-1D91-4FD5-A25D-9BB95B54B4B8}</author>
+    <author>tc={EA8B36C2-94E2-4C29-B688-A6AA8E28FCAD}</author>
+    <author>tc={ECB8A9F3-A384-49B2-A40C-C5E4F0A63451}</author>
+    <author>tc={D5457BC7-431D-4F01-8C71-FFFF95C807CE}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -894,12 +900,52 @@
     1, 2, 3 더하기 5</t>
       </text>
     </comment>
+    <comment ref="B57" authorId="58" shapeId="0" xr:uid="{0F888367-00BF-4853-9EC7-15912409EDA1}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    문자열</t>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="59" shapeId="0" xr:uid="{CF8A9CBE-1D91-4FD5-A25D-9BB95B54B4B8}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    단어 정렬</t>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="60" shapeId="0" xr:uid="{EA8B36C2-94E2-4C29-B688-A6AA8E28FCAD}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    광고</t>
+      </text>
+    </comment>
+    <comment ref="B60" authorId="61" shapeId="0" xr:uid="{ECB8A9F3-A384-49B2-A40C-C5E4F0A63451}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    그룹 단어 체커</t>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="62" shapeId="0" xr:uid="{D5457BC7-431D-4F01-8C71-FFFF95C807CE}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    잃어버린 괄호</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="109">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1653,12 +1699,69 @@
 주의할 사항은, 맨 앞에 NULL CHAR을 붙이는 것이며, 함수 내에서 ROW, COL에 바인딩 된 문자열이 무엇인지 항상 주의깊게 살피자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>문자열은 다음과 같은 문제 유형이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열은 추후 데이터가 더 쌓인 뒤 문제 유형 분석할 것.
+문자열은 실버 이상 문제만 분석한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴 문자열과 짧은 문자열이 있을 때, 짧은 문자열의 시점을 긴 문자열의 index 0부터 뒤로 밀어가며, 최대 공통 개수를 구하는 문제.
+문자열의 길이 : 500
+사용 알고리즘 : 브루트포스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 비교하는 compare 함수의 설계.
+문자열에서 대소(&gt;,&lt;)는 lexicographic order를 따른다.
+a,b,c 순서가 우선하며, 문자열의 길이가 그 뒤를 따른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP의 실패함수는 "문자열의 맨 처음과 문자열의 맨 뒤의 몇 글자가 서로 일치하는가"를 저장한다.
+광고판에서 문자가 연속적으로 나올 경우, 맨 뒤에서 맨 앞의 문자를 표시하기에, KMP의 실패함수의 정의를 그대로 갖다 쓴 문제다.
+문자열의 길이 : 1,000,000
+사용 알고리즘 : KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열의 길이 : 100
+사용 알고리즘 : 순회탐색(O(N))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파싱은 매우 간단한 규칙으로 완성되며, 그 규칙을 반드시 찾아내야 한다.
+문자열의 길이 : 50
+사용 알고리즘 : 순회 탐색(O(N))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1773,6 +1876,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1839,7 +1951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,17 +2006,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2525,18 +2649,33 @@
   <threadedComment ref="B56" dT="2022-05-04T04:57:49.61" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{1090462A-94BA-46A6-B93F-7E68EC4E38BF}">
     <text>1, 2, 3 더하기 5</text>
   </threadedComment>
+  <threadedComment ref="B57" dT="2022-05-06T04:08:41.52" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{0F888367-00BF-4853-9EC7-15912409EDA1}">
+    <text>문자열</text>
+  </threadedComment>
+  <threadedComment ref="B58" dT="2022-05-06T04:26:15.71" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{CF8A9CBE-1D91-4FD5-A25D-9BB95B54B4B8}">
+    <text>단어 정렬</text>
+  </threadedComment>
+  <threadedComment ref="B59" dT="2022-05-06T04:50:36.57" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{EA8B36C2-94E2-4C29-B688-A6AA8E28FCAD}">
+    <text>광고</text>
+  </threadedComment>
+  <threadedComment ref="B60" dT="2022-05-06T05:15:20.83" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{ECB8A9F3-A384-49B2-A40C-C5E4F0A63451}">
+    <text>그룹 단어 체커</text>
+  </threadedComment>
+  <threadedComment ref="B61" dT="2022-05-06T05:15:46.46" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{D5457BC7-431D-4F01-8C71-FFFF95C807CE}">
+    <text>잃어버린 괄호</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2549,17 +2688,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="7"/>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -2593,11 +2732,11 @@
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
@@ -3113,7 +3252,7 @@
       <c r="B26" s="2">
         <v>2293</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -3727,6 +3866,106 @@
       </c>
       <c r="F56" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="100.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1120</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1181</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1305</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1316</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1541</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3981,7 @@
   <conditionalFormatting sqref="B2:B1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A24:D46 A47:C47 A48:D48 A49:C49 A57:I421 A50:D56 G13:I56">
+  <conditionalFormatting sqref="A2:I3 G4:I11 H12:I12 A4:D19 A20:C20 A21:D22 A23:C23 A24:D46 A47:C47 A48:D48 A49:C49 A50:D56 G13:I56 A57:I57 A58:D60 G58:I60 A61:I421">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
@@ -3772,6 +4011,14 @@
       <formula>$B49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{81F1BC77-541E-4046-B6B7-7A2122438CAB}">
+      <formula1>"Y, N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 F3:F1048576" xr:uid="{3C285C76-51D7-41B9-A4BD-84173471DB0B}">
+      <formula1>$K$2:$N$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{6A70C3A3-3BDE-4FA2-96F4-D23B0CCF6FD4}"/>
     <hyperlink ref="B3" r:id="rId2" display="https://www.acmicpc.net/problem/2839" xr:uid="{8633029C-7106-404B-945B-BC944867C52F}"/>
@@ -3868,10 +4115,20 @@
     <hyperlink ref="A55" r:id="rId93" xr:uid="{AE9BBEE0-B7EE-4B01-92AB-D02BC435CC7B}"/>
     <hyperlink ref="B56" r:id="rId94" display="https://www.acmicpc.net/problem/15990" xr:uid="{4AAD3A26-249C-4F39-92D8-635A69064C26}"/>
     <hyperlink ref="A56" r:id="rId95" xr:uid="{CAF1CE5B-CA9F-49EC-B79D-72A23F304ED6}"/>
+    <hyperlink ref="A57" r:id="rId96" xr:uid="{C13F43F0-166B-420A-9DD6-E79E9259FC30}"/>
+    <hyperlink ref="B57" r:id="rId97" display="https://www.acmicpc.net/problem/1120" xr:uid="{37202E96-7260-4889-AFAD-CBBAE33AF01B}"/>
+    <hyperlink ref="A58" r:id="rId98" xr:uid="{F465ED8A-A421-4FA7-AC94-ACA7FB700B92}"/>
+    <hyperlink ref="B58" r:id="rId99" display="https://www.acmicpc.net/problem/1181" xr:uid="{C026C12F-A2D0-460C-A5DA-9BAA8DB55000}"/>
+    <hyperlink ref="B59" r:id="rId100" display="https://www.acmicpc.net/problem/1305" xr:uid="{25D6CD1B-A90C-4CD6-8CD8-AA222D80D889}"/>
+    <hyperlink ref="A59" r:id="rId101" xr:uid="{281A5DC1-1576-4508-88DC-1B1C55DB4F45}"/>
+    <hyperlink ref="A60" r:id="rId102" xr:uid="{4D6DD387-F7AC-4E8D-84AD-E909E76FC8D3}"/>
+    <hyperlink ref="B60" r:id="rId103" display="https://www.acmicpc.net/problem/1316" xr:uid="{B50C81FD-C538-42F8-8687-1E749F749B90}"/>
+    <hyperlink ref="A61" r:id="rId104" xr:uid="{A38E6271-4A5D-4EDC-A914-C57EDFD07DC5}"/>
+    <hyperlink ref="B61" r:id="rId105" display="https://www.acmicpc.net/problem/1541" xr:uid="{99A4B835-F929-41D9-A110-E44D90015423}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
-  <legacyDrawing r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
+  <legacyDrawing r:id="rId107"/>
 </worksheet>
 </file>
 
@@ -3879,7 +4136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC911DBE-9406-4F0F-B29D-4FFA6436B5CC}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -3890,14 +4147,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -3908,7 +4165,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="15" t="s">
         <v>82</v>
       </c>
@@ -3917,7 +4174,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3928,7 +4185,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="15" t="s">
         <v>82</v>
       </c>
@@ -3937,7 +4194,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3948,7 +4205,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="15" t="s">
         <v>82</v>
       </c>
@@ -3957,7 +4214,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -3968,7 +4225,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="15" t="s">
         <v>82</v>
       </c>
@@ -3977,7 +4234,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+      <c r="A10" s="20">
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3988,7 +4245,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="15" t="s">
         <v>82</v>
       </c>
@@ -3997,7 +4254,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="A12" s="20">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4008,7 +4265,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="15" t="s">
         <v>82</v>
       </c>
@@ -4017,18 +4274,18 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
+      <c r="A14" s="20">
         <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="15" t="s">
         <v>82</v>
       </c>
@@ -4050,4 +4307,221 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3C5128-D849-47CE-9735-8F9BFE7E4708}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="79.59765625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="G2" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20"/>
+      <c r="B3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+    </row>
+    <row r="4" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="20"/>
+      <c r="B5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="20"/>
+      <c r="B7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="20">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="20">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="20">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20"/>
+      <c r="B13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="20">
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="20"/>
+      <c r="B15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G2:S6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/코드리뷰.xlsx
+++ b/코드리뷰.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C22DB3-F920-4B1B-907D-CCC2C7BA9529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0726F7D6-32BF-4D7C-9885-301DB44C07F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42CDC6F7-A52B-4D97-9E08-B961DB7DFB27}"/>
   </bookViews>
@@ -105,6 +105,10 @@
     <author>tc={EA8B36C2-94E2-4C29-B688-A6AA8E28FCAD}</author>
     <author>tc={ECB8A9F3-A384-49B2-A40C-C5E4F0A63451}</author>
     <author>tc={D5457BC7-431D-4F01-8C71-FFFF95C807CE}</author>
+    <author>tc={086CCA13-939D-40E7-B2BF-73AC627D3750}</author>
+    <author>tc={BD946EEE-51D1-4BF0-8E9B-83E271401613}</author>
+    <author>tc={A35317AF-9886-4D52-A5EC-50977AFDE57D}</author>
+    <author>tc={9F056AAA-60C5-41F2-BAE9-308B7620E315}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E1F8579F-3C3E-4E1B-8829-73D89C5A62AA}">
@@ -940,12 +944,44 @@
     잃어버린 괄호</t>
       </text>
     </comment>
+    <comment ref="B62" authorId="63" shapeId="0" xr:uid="{086CCA13-939D-40E7-B2BF-73AC627D3750}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Cubeditor</t>
+      </text>
+    </comment>
+    <comment ref="B63" authorId="64" shapeId="0" xr:uid="{BD946EEE-51D1-4BF0-8E9B-83E271401613}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    찾기</t>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="65" shapeId="0" xr:uid="{A35317AF-9886-4D52-A5EC-50977AFDE57D}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    LCS 3</t>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="66" shapeId="0" xr:uid="{9F056AAA-60C5-41F2-BAE9-308B7620E315}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    크로아티아 알파벳</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="115">
   <si>
     <t>코드리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1755,6 +1791,41 @@
   </si>
   <si>
     <t>△</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>KMP는 나온 문자열이 언제, 얼만큼 또 나오는지 알고자 할 때 쓴다.
+주의 : KMP는 시작 지점이 문자열의 맨 왼쪽으로 고정되어 있는 알고리즘이다. 시작 지점이 고정되면 안 될 경우, 각 시작 지점에 대해 모두 판단해야 한다.
+문자열의 길이 : 5000
+사용 알고리즘 : KMP(O(N^2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP의 기초 문제.
+실패함수는 부분 문자열만 가지고 구현하는 것이다.
+실패함수의 의미는 (맨 앞 ~ XXX)와 (OOO ~ 맨 뒤) 두 문자열이 동일한 XXX의 최댓값이다.
+즉, 동일 문자열이 나오는 횟수를 구하는 등의 작업으로 인해 KMP를 여러 번 적용해야 할 경우, 맨 끝까지 KMP를 돌리고, 다시 부분 문자열의 처음으로 가는 것이 아닌, 실패함수를 이용해 중간 지점으로 돌아가야 한다.
+문자열의 길이 : 1,000,000
+사용 알고리즘 : KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 문자열의 LCS를 구할 경우, 1&amp;2를 하고 그 문자열을 바탕으로 3을 처리하면 바로 오답 처리된다.
+1&amp;2에서 LCS가 여러 종류 나올 가능성이 있으며, LCS에서 전체의 LCS가 나온다는 보장이 없기 때문이다.
+문자열의 길이 : 100
+사용 알고리즘 : 브루트 포스(O(N^3))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 한정, 파이썬을 배우는 것은 어떨까??
+문자열의 길이 : 100
+사용 알고리즘 : 브루트 포스(O(NM))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▽</t>
   </si>
 </sst>
 </file>
@@ -2012,6 +2083,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2022,12 +2096,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2664,18 +2735,30 @@
   <threadedComment ref="B61" dT="2022-05-06T05:15:46.46" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{D5457BC7-431D-4F01-8C71-FFFF95C807CE}">
     <text>잃어버린 괄호</text>
   </threadedComment>
+  <threadedComment ref="B62" dT="2022-05-09T05:09:40.52" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{086CCA13-939D-40E7-B2BF-73AC627D3750}">
+    <text>Cubeditor</text>
+  </threadedComment>
+  <threadedComment ref="B63" dT="2022-05-09T05:22:10.90" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{BD946EEE-51D1-4BF0-8E9B-83E271401613}">
+    <text>찾기</text>
+  </threadedComment>
+  <threadedComment ref="B64" dT="2022-05-09T05:40:40.17" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{A35317AF-9886-4D52-A5EC-50977AFDE57D}">
+    <text>LCS 3</text>
+  </threadedComment>
+  <threadedComment ref="B65" dT="2022-05-09T05:47:59.39" personId="{B2340A2C-4B18-4FF9-8943-681A445CAC4E}" id="{9F056AAA-60C5-41F2-BAE9-308B7620E315}">
+    <text>크로아티아 알파벳</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563A9F4-83B0-43C8-AD60-2CC84D178076}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2688,17 +2771,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="7"/>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -2732,11 +2815,11 @@
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
@@ -3869,7 +3952,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="100.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B57" s="2">
@@ -3883,7 +3966,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B58" s="2">
@@ -3906,7 +3989,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B59" s="2">
@@ -3929,7 +4012,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B60" s="2">
@@ -3949,7 +4032,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B61" s="2">
@@ -3966,6 +4049,86 @@
       </c>
       <c r="F61" s="5" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="140.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1701</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="202.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1786</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1958</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2941</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +4178,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{81F1BC77-541E-4046-B6B7-7A2122438CAB}">
       <formula1>"Y, N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 F3:F1048576" xr:uid="{3C285C76-51D7-41B9-A4BD-84173471DB0B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F1048576" xr:uid="{3C285C76-51D7-41B9-A4BD-84173471DB0B}">
       <formula1>$K$2:$N$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -4125,10 +4288,18 @@
     <hyperlink ref="B60" r:id="rId103" display="https://www.acmicpc.net/problem/1316" xr:uid="{B50C81FD-C538-42F8-8687-1E749F749B90}"/>
     <hyperlink ref="A61" r:id="rId104" xr:uid="{A38E6271-4A5D-4EDC-A914-C57EDFD07DC5}"/>
     <hyperlink ref="B61" r:id="rId105" display="https://www.acmicpc.net/problem/1541" xr:uid="{99A4B835-F929-41D9-A110-E44D90015423}"/>
+    <hyperlink ref="A62" r:id="rId106" xr:uid="{B3DA6F7E-1166-4802-92B3-9EA6BEC39DEA}"/>
+    <hyperlink ref="B62" r:id="rId107" display="https://www.acmicpc.net/problem/1701" xr:uid="{3BB64A66-93C7-4C85-87D6-4B11E7ABC0B0}"/>
+    <hyperlink ref="A63" r:id="rId108" xr:uid="{0C5767A6-1E6F-4F7E-BBF4-3C8A5300C77B}"/>
+    <hyperlink ref="B63" r:id="rId109" display="https://www.acmicpc.net/problem/1786" xr:uid="{AACB58D1-FF42-4F99-AF47-8CACD5DFF113}"/>
+    <hyperlink ref="A64" r:id="rId110" xr:uid="{74F81E4D-6EE5-49A6-950E-E49E931E1508}"/>
+    <hyperlink ref="B64" r:id="rId111" display="https://www.acmicpc.net/problem/1958" xr:uid="{72EB6974-33FB-447F-B39F-E05A3FE7D737}"/>
+    <hyperlink ref="A65" r:id="rId112" xr:uid="{02705FAD-A148-471A-B29D-EBD3B246D0BE}"/>
+    <hyperlink ref="B65" r:id="rId113" display="https://www.acmicpc.net/problem/2941" xr:uid="{80E14C8B-4D9C-4C51-8C03-D899CE866FE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
-  <legacyDrawing r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
+  <legacyDrawing r:id="rId115"/>
 </worksheet>
 </file>
 
@@ -4147,14 +4318,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -4165,7 +4336,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="15" t="s">
         <v>82</v>
       </c>
@@ -4174,7 +4345,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -4185,7 +4356,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="15" t="s">
         <v>82</v>
       </c>
@@ -4194,7 +4365,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4205,7 +4376,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="15" t="s">
         <v>82</v>
       </c>
@@ -4214,7 +4385,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -4225,7 +4396,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="15" t="s">
         <v>82</v>
       </c>
@@ -4234,7 +4405,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -4245,7 +4416,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="15" t="s">
         <v>82</v>
       </c>
@@ -4254,7 +4425,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="20">
+      <c r="A12" s="21">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4265,7 +4436,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="15" t="s">
         <v>82</v>
       </c>
@@ -4274,7 +4445,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -4285,7 +4456,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="15" t="s">
         <v>82</v>
       </c>
@@ -4324,14 +4495,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -4341,112 +4512,112 @@
       <c r="G2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
     </row>
     <row r="4" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
     </row>
     <row r="6" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -4455,14 +4626,14 @@
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -4471,14 +4642,14 @@
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="20">
+      <c r="A12" s="21">
         <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -4487,14 +4658,14 @@
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>7</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -4503,7 +4674,7 @@
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="17" t="s">
         <v>82</v>
       </c>
